--- a/config/excel/Item.xlsx
+++ b/config/excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="328">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -79,7 +79,13 @@
 2: 晶石 3: 礼包</t>
   </si>
   <si>
-    <t>0：材料与消耗品</t>
+    <t>0：材料与消耗品
+0: 单手剑
+1: 双手剑
+2: 长柄
+3: 手枪
+4: 法杖
+5: 召唤物</t>
   </si>
   <si>
     <t>0:白 @@ -507,19 +513,544 @@
     <t>礼包3</t>
   </si>
   <si>
+    <t>单手剑1</t>
+  </si>
+  <si>
     <t>装备1</t>
   </si>
   <si>
+    <t>单手剑2</t>
+  </si>
+  <si>
     <t>装备2</t>
   </si>
   <si>
+    <t>单手剑3</t>
+  </si>
+  <si>
     <t>装备3</t>
   </si>
   <si>
+    <t>单手剑4</t>
+  </si>
+  <si>
     <t>装备4</t>
   </si>
   <si>
+    <t>单手剑5</t>
+  </si>
+  <si>
     <t>装备5</t>
+  </si>
+  <si>
+    <t>单手剑6</t>
+  </si>
+  <si>
+    <t>装备6</t>
+  </si>
+  <si>
+    <t>单手剑7</t>
+  </si>
+  <si>
+    <t>装备7</t>
+  </si>
+  <si>
+    <t>单手剑8</t>
+  </si>
+  <si>
+    <t>装备8</t>
+  </si>
+  <si>
+    <t>单手剑9</t>
+  </si>
+  <si>
+    <t>装备9</t>
+  </si>
+  <si>
+    <t>单手剑10</t>
+  </si>
+  <si>
+    <t>装备10</t>
+  </si>
+  <si>
+    <t>双手剑1</t>
+  </si>
+  <si>
+    <t>装备11</t>
+  </si>
+  <si>
+    <t>双手剑2</t>
+  </si>
+  <si>
+    <t>装备12</t>
+  </si>
+  <si>
+    <t>双手剑3</t>
+  </si>
+  <si>
+    <t>装备13</t>
+  </si>
+  <si>
+    <t>双手剑4</t>
+  </si>
+  <si>
+    <t>装备14</t>
+  </si>
+  <si>
+    <t>双手剑5</t>
+  </si>
+  <si>
+    <t>装备15</t>
+  </si>
+  <si>
+    <t>双手剑6</t>
+  </si>
+  <si>
+    <t>装备16</t>
+  </si>
+  <si>
+    <t>双手剑7</t>
+  </si>
+  <si>
+    <t>装备17</t>
+  </si>
+  <si>
+    <t>双手剑8</t>
+  </si>
+  <si>
+    <t>装备18</t>
+  </si>
+  <si>
+    <t>双手剑9</t>
+  </si>
+  <si>
+    <t>装备19</t>
+  </si>
+  <si>
+    <t>双手剑10</t>
+  </si>
+  <si>
+    <t>装备20</t>
+  </si>
+  <si>
+    <t>长柄1</t>
+  </si>
+  <si>
+    <t>装备21</t>
+  </si>
+  <si>
+    <t>长柄2</t>
+  </si>
+  <si>
+    <t>装备22</t>
+  </si>
+  <si>
+    <t>长柄3</t>
+  </si>
+  <si>
+    <t>装备23</t>
+  </si>
+  <si>
+    <t>长柄4</t>
+  </si>
+  <si>
+    <t>装备24</t>
+  </si>
+  <si>
+    <t>长柄5</t>
+  </si>
+  <si>
+    <t>装备25</t>
+  </si>
+  <si>
+    <t>长柄6</t>
+  </si>
+  <si>
+    <t>装备26</t>
+  </si>
+  <si>
+    <t>长柄7</t>
+  </si>
+  <si>
+    <t>装备27</t>
+  </si>
+  <si>
+    <t>长柄8</t>
+  </si>
+  <si>
+    <t>装备28</t>
+  </si>
+  <si>
+    <t>长柄9</t>
+  </si>
+  <si>
+    <t>装备29</t>
+  </si>
+  <si>
+    <t>长柄10</t>
+  </si>
+  <si>
+    <t>装备30</t>
+  </si>
+  <si>
+    <t>手枪1</t>
+  </si>
+  <si>
+    <t>装备31</t>
+  </si>
+  <si>
+    <t>手枪2</t>
+  </si>
+  <si>
+    <t>装备32</t>
+  </si>
+  <si>
+    <t>手枪3</t>
+  </si>
+  <si>
+    <t>装备33</t>
+  </si>
+  <si>
+    <t>手枪4</t>
+  </si>
+  <si>
+    <t>装备34</t>
+  </si>
+  <si>
+    <t>手枪5</t>
+  </si>
+  <si>
+    <t>装备35</t>
+  </si>
+  <si>
+    <t>手枪6</t>
+  </si>
+  <si>
+    <t>装备36</t>
+  </si>
+  <si>
+    <t>手枪7</t>
+  </si>
+  <si>
+    <t>装备37</t>
+  </si>
+  <si>
+    <t>手枪8</t>
+  </si>
+  <si>
+    <t>装备38</t>
+  </si>
+  <si>
+    <t>手枪9</t>
+  </si>
+  <si>
+    <t>装备39</t>
+  </si>
+  <si>
+    <t>手枪10</t>
+  </si>
+  <si>
+    <t>装备40</t>
+  </si>
+  <si>
+    <t>法杖1</t>
+  </si>
+  <si>
+    <t>装备41</t>
+  </si>
+  <si>
+    <t>法杖2</t>
+  </si>
+  <si>
+    <t>装备42</t>
+  </si>
+  <si>
+    <t>法杖3</t>
+  </si>
+  <si>
+    <t>装备43</t>
+  </si>
+  <si>
+    <t>法杖4</t>
+  </si>
+  <si>
+    <t>装备44</t>
+  </si>
+  <si>
+    <t>法杖5</t>
+  </si>
+  <si>
+    <t>装备45</t>
+  </si>
+  <si>
+    <t>法杖6</t>
+  </si>
+  <si>
+    <t>装备46</t>
+  </si>
+  <si>
+    <t>法杖7</t>
+  </si>
+  <si>
+    <t>装备47</t>
+  </si>
+  <si>
+    <t>法杖8</t>
+  </si>
+  <si>
+    <t>装备48</t>
+  </si>
+  <si>
+    <t>法杖9</t>
+  </si>
+  <si>
+    <t>装备49</t>
+  </si>
+  <si>
+    <t>法杖10</t>
+  </si>
+  <si>
+    <t>装备50</t>
+  </si>
+  <si>
+    <t>召唤物1</t>
+  </si>
+  <si>
+    <t>装备51</t>
+  </si>
+  <si>
+    <t>召唤物2</t>
+  </si>
+  <si>
+    <t>装备52</t>
+  </si>
+  <si>
+    <t>召唤物3</t>
+  </si>
+  <si>
+    <t>装备53</t>
+  </si>
+  <si>
+    <t>召唤物4</t>
+  </si>
+  <si>
+    <t>装备54</t>
+  </si>
+  <si>
+    <t>召唤物5</t>
+  </si>
+  <si>
+    <t>装备55</t>
+  </si>
+  <si>
+    <t>召唤物6</t>
+  </si>
+  <si>
+    <t>装备56</t>
+  </si>
+  <si>
+    <t>召唤物7</t>
+  </si>
+  <si>
+    <t>装备57</t>
+  </si>
+  <si>
+    <t>召唤物8</t>
+  </si>
+  <si>
+    <t>装备58</t>
+  </si>
+  <si>
+    <t>召唤物9</t>
+  </si>
+  <si>
+    <t>装备59</t>
+  </si>
+  <si>
+    <t>召唤物10</t>
+  </si>
+  <si>
+    <t>装备60</t>
+  </si>
+  <si>
+    <t>衣服1</t>
+  </si>
+  <si>
+    <t>装备61</t>
+  </si>
+  <si>
+    <t>衣服2</t>
+  </si>
+  <si>
+    <t>装备62</t>
+  </si>
+  <si>
+    <t>衣服3</t>
+  </si>
+  <si>
+    <t>装备63</t>
+  </si>
+  <si>
+    <t>衣服4</t>
+  </si>
+  <si>
+    <t>装备64</t>
+  </si>
+  <si>
+    <t>衣服5</t>
+  </si>
+  <si>
+    <t>装备65</t>
+  </si>
+  <si>
+    <t>衣服6</t>
+  </si>
+  <si>
+    <t>装备66</t>
+  </si>
+  <si>
+    <t>衣服7</t>
+  </si>
+  <si>
+    <t>装备67</t>
+  </si>
+  <si>
+    <t>衣服8</t>
+  </si>
+  <si>
+    <t>装备68</t>
+  </si>
+  <si>
+    <t>衣服9</t>
+  </si>
+  <si>
+    <t>装备69</t>
+  </si>
+  <si>
+    <t>衣服10</t>
+  </si>
+  <si>
+    <t>装备70</t>
+  </si>
+  <si>
+    <t>裤子1</t>
+  </si>
+  <si>
+    <t>装备71</t>
+  </si>
+  <si>
+    <t>裤子2</t>
+  </si>
+  <si>
+    <t>装备72</t>
+  </si>
+  <si>
+    <t>裤子3</t>
+  </si>
+  <si>
+    <t>装备73</t>
+  </si>
+  <si>
+    <t>裤子4</t>
+  </si>
+  <si>
+    <t>装备74</t>
+  </si>
+  <si>
+    <t>裤子5</t>
+  </si>
+  <si>
+    <t>装备75</t>
+  </si>
+  <si>
+    <t>裤子6</t>
+  </si>
+  <si>
+    <t>装备76</t>
+  </si>
+  <si>
+    <t>裤子7</t>
+  </si>
+  <si>
+    <t>装备77</t>
+  </si>
+  <si>
+    <t>裤子8</t>
+  </si>
+  <si>
+    <t>装备78</t>
+  </si>
+  <si>
+    <t>裤子9</t>
+  </si>
+  <si>
+    <t>装备79</t>
+  </si>
+  <si>
+    <t>裤子10</t>
+  </si>
+  <si>
+    <t>装备80</t>
+  </si>
+  <si>
+    <t>饰品1</t>
+  </si>
+  <si>
+    <t>装备81</t>
+  </si>
+  <si>
+    <t>饰品2</t>
+  </si>
+  <si>
+    <t>装备82</t>
+  </si>
+  <si>
+    <t>饰品3</t>
+  </si>
+  <si>
+    <t>装备83</t>
+  </si>
+  <si>
+    <t>饰品4</t>
+  </si>
+  <si>
+    <t>装备84</t>
+  </si>
+  <si>
+    <t>饰品5</t>
+  </si>
+  <si>
+    <t>装备85</t>
+  </si>
+  <si>
+    <t>饰品6</t>
+  </si>
+  <si>
+    <t>装备86</t>
+  </si>
+  <si>
+    <t>饰品7</t>
+  </si>
+  <si>
+    <t>装备87</t>
+  </si>
+  <si>
+    <t>饰品8</t>
+  </si>
+  <si>
+    <t>装备88</t>
+  </si>
+  <si>
+    <t>饰品9</t>
+  </si>
+  <si>
+    <t>装备89</t>
+  </si>
+  <si>
+    <t>饰品10</t>
+  </si>
+  <si>
+    <t>装备90</t>
   </si>
   <si>
     <t>晶石1</t>
@@ -543,11 +1074,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -563,44 +1094,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,7 +1123,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,38 +1196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,8 +1213,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,33 +1238,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -734,7 +1276,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +1342,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,91 +1438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,67 +1450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,11 +1485,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,21 +1569,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1005,186 +1582,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,54 +1745,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2398,12 +2940,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144:D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2411,9 +2953,9 @@
     <col min="1" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3846153846154" style="1" customWidth="1"/>
-    <col min="15" max="19" width="32.1538461538462" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.3846153846154" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.15" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3833333333333" style="1" customWidth="1"/>
     <col min="21" max="16384" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2442,7 +2984,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:21">
+    <row r="2" ht="108" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2455,7 +2997,7 @@
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -2745,7 +3287,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O7" s="8">
-        <f>(N7-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O7:O15" si="0">(N7-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P7" s="8">
@@ -2807,7 +3349,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O8" s="8">
-        <f>(N8-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P8" s="8">
@@ -2867,7 +3409,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O9" s="8">
-        <f>(N9-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P9" s="8">
@@ -2927,7 +3469,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O10" s="8">
-        <f>(N10-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P10" s="8">
@@ -2987,7 +3529,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O11" s="8">
-        <f>(N11-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P11" s="8">
@@ -3047,7 +3589,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O12" s="8">
-        <f>(N12-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P12" s="8">
@@ -3107,7 +3649,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O13" s="8">
-        <f>(N13-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P13" s="8">
@@ -3167,7 +3709,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O14" s="8">
-        <f>(N14-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P14" s="8">
@@ -3227,7 +3769,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O15" s="8">
-        <f>(N15-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="0"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P15" s="8">
@@ -3287,7 +3829,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O47" si="0">(N16-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O16:O47" si="1">(N16-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P16" s="8">
@@ -3347,7 +3889,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P17" s="8">
@@ -3407,7 +3949,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P18" s="8">
@@ -3467,7 +4009,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P19" s="8">
@@ -3527,7 +4069,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P20" s="8">
@@ -3587,7 +4129,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P21" s="8">
@@ -3647,7 +4189,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P22" s="8">
@@ -3707,7 +4249,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P23" s="8">
@@ -3767,7 +4309,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P24" s="8">
@@ -3827,7 +4369,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P25" s="8">
@@ -3887,7 +4429,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P26" s="8">
@@ -3947,7 +4489,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P27" s="8">
@@ -4007,7 +4549,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P28" s="8">
@@ -4067,7 +4609,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P29" s="8">
@@ -4127,7 +4669,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P30" s="8">
@@ -4187,7 +4729,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P31" s="8">
@@ -4247,7 +4789,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P32" s="8">
@@ -4307,7 +4849,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P33" s="8">
@@ -4367,7 +4909,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P34" s="8">
@@ -4427,7 +4969,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P35" s="8">
@@ -4487,7 +5029,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P36" s="8">
@@ -4547,7 +5089,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P37" s="8">
@@ -4607,7 +5149,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P38" s="8">
@@ -4667,7 +5209,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P39" s="8">
@@ -4727,7 +5269,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P40" s="8">
@@ -4787,7 +5329,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P41" s="8">
@@ -4847,7 +5389,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P42" s="8">
@@ -4907,7 +5449,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P43" s="8">
@@ -4967,7 +5509,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P44" s="8">
@@ -5027,7 +5569,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P45" s="8">
@@ -5087,7 +5629,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P46" s="8">
@@ -5147,7 +5689,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P47" s="8">
@@ -5207,7 +5749,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" ref="O48:O93" si="1">(N48-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="O48:O93" si="2">(N48-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P48" s="8">
@@ -5267,7 +5809,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P49" s="8">
@@ -5327,7 +5869,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P50" s="8">
@@ -5387,7 +5929,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P51" s="8">
@@ -5447,7 +5989,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P52" s="8">
@@ -5507,7 +6049,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P53" s="8">
@@ -5567,7 +6109,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P54" s="8">
@@ -5627,7 +6169,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P55" s="8">
@@ -5687,7 +6229,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P56" s="8">
@@ -5747,7 +6289,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P57" s="8">
@@ -5807,7 +6349,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P58" s="8">
@@ -5867,7 +6409,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P59" s="8">
@@ -5927,7 +6469,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P60" s="8">
@@ -5987,7 +6529,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P61" s="8">
@@ -6047,7 +6589,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P62" s="8">
@@ -6107,7 +6649,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P63" s="8">
@@ -6167,7 +6709,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P64" s="8">
@@ -6227,7 +6769,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P65" s="8">
@@ -6287,7 +6829,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P66" s="8">
@@ -6347,7 +6889,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P67" s="8">
@@ -6407,7 +6949,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P68" s="8">
@@ -6467,7 +7009,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P69" s="8">
@@ -6527,7 +7069,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P70" s="8">
@@ -6587,7 +7129,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P71" s="8">
@@ -6647,7 +7189,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P72" s="8">
@@ -6707,7 +7249,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P73" s="8">
@@ -6767,7 +7309,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P74" s="8">
@@ -6827,7 +7369,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P75" s="8">
@@ -6887,7 +7429,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P76" s="8">
@@ -6947,7 +7489,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P77" s="8">
@@ -7007,7 +7549,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O78" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P78" s="8">
@@ -7067,7 +7609,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P79" s="8">
@@ -7127,7 +7669,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O80" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P80" s="8">
@@ -7187,7 +7729,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P81" s="8">
@@ -7247,7 +7789,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O82" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P82" s="8">
@@ -7307,7 +7849,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P83" s="8">
@@ -7333,11 +7875,11 @@
       <c r="C84" s="1">
         <v>1000</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>59</v>
@@ -7367,7 +7909,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O84" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P84" s="8">
@@ -7393,11 +7935,11 @@
       <c r="C85" s="1">
         <v>1001</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>144</v>
+      <c r="D85" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>59</v>
@@ -7427,7 +7969,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P85" s="8">
@@ -7453,11 +7995,11 @@
       <c r="C86" s="1">
         <v>1002</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>145</v>
+      <c r="D86" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>59</v>
@@ -7487,7 +8029,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O86" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P86" s="8">
@@ -7513,11 +8055,11 @@
       <c r="C87" s="1">
         <v>1003</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>146</v>
+      <c r="D87" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>59</v>
@@ -7547,7 +8089,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P87" s="8">
@@ -7573,11 +8115,11 @@
       <c r="C88" s="1">
         <v>1004</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>147</v>
+      <c r="D88" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>59</v>
@@ -7607,7 +8149,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P88" s="8">
@@ -7631,13 +8173,13 @@
     </row>
     <row r="89" customHeight="1" spans="3:21">
       <c r="C89" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>148</v>
+        <v>1005</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>59</v>
@@ -7646,13 +8188,13 @@
         <v>62</v>
       </c>
       <c r="H89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="6">
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K89" s="1">
         <v>9999</v>
@@ -7667,7 +8209,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O89:O120" si="3">(N89-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P89" s="8">
@@ -7691,13 +8233,13 @@
     </row>
     <row r="90" customHeight="1" spans="3:21">
       <c r="C90" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>149</v>
+        <v>1006</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>59</v>
@@ -7706,13 +8248,13 @@
         <v>62</v>
       </c>
       <c r="H90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="6">
         <v>0</v>
       </c>
       <c r="J90" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K90" s="1">
         <v>9999</v>
@@ -7727,7 +8269,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O90" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P90" s="8">
@@ -7751,13 +8293,13 @@
     </row>
     <row r="91" customHeight="1" spans="3:21">
       <c r="C91" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>150</v>
+        <v>1007</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>59</v>
@@ -7766,13 +8308,13 @@
         <v>62</v>
       </c>
       <c r="H91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" s="6">
         <v>0</v>
       </c>
       <c r="J91" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K91" s="1">
         <v>9999</v>
@@ -7787,7 +8329,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O91" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P91" s="8">
@@ -7811,13 +8353,13 @@
     </row>
     <row r="92" customHeight="1" spans="3:21">
       <c r="C92" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>151</v>
+        <v>1008</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>59</v>
@@ -7826,13 +8368,13 @@
         <v>62</v>
       </c>
       <c r="H92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" s="6">
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K92" s="1">
         <v>9999</v>
@@ -7847,7 +8389,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P92" s="8">
@@ -7871,13 +8413,13 @@
     </row>
     <row r="93" customHeight="1" spans="3:21">
       <c r="C93" s="1">
-        <v>2004</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>152</v>
+        <v>1009</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>59</v>
@@ -7886,7 +8428,7 @@
         <v>62</v>
       </c>
       <c r="H93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="6">
         <v>0</v>
@@ -7907,7 +8449,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="P93" s="8">
@@ -7926,6 +8468,5106 @@
         <v>-1</v>
       </c>
       <c r="U93" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:21">
+      <c r="C94" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1</v>
+      </c>
+      <c r="J94" s="6">
+        <v>4</v>
+      </c>
+      <c r="K94" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O94" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P94" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>0</v>
+      </c>
+      <c r="R94" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S94" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U94" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:21">
+      <c r="C95" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6">
+        <v>4</v>
+      </c>
+      <c r="K95" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N95" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O95" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P95" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>0</v>
+      </c>
+      <c r="R95" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S95" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U95" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:21">
+      <c r="C96" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6">
+        <v>1</v>
+      </c>
+      <c r="J96" s="6">
+        <v>4</v>
+      </c>
+      <c r="K96" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N96" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O96" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P96" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="8">
+        <v>0</v>
+      </c>
+      <c r="R96" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S96" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U96" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:21">
+      <c r="C97" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+      <c r="J97" s="6">
+        <v>4</v>
+      </c>
+      <c r="K97" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N97" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O97" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P97" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="8">
+        <v>0</v>
+      </c>
+      <c r="R97" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S97" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U97" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:21">
+      <c r="C98" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6">
+        <v>4</v>
+      </c>
+      <c r="K98" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N98" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O98" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P98" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="8">
+        <v>0</v>
+      </c>
+      <c r="R98" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S98" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U98" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:21">
+      <c r="C99" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+      <c r="J99" s="6">
+        <v>4</v>
+      </c>
+      <c r="K99" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O99" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P99" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="8">
+        <v>0</v>
+      </c>
+      <c r="R99" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S99" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U99" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:21">
+      <c r="C100" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6">
+        <v>1</v>
+      </c>
+      <c r="J100" s="6">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O100" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P100" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>0</v>
+      </c>
+      <c r="R100" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S100" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U100" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:21">
+      <c r="C101" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6">
+        <v>4</v>
+      </c>
+      <c r="K101" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O101" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P101" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>0</v>
+      </c>
+      <c r="R101" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S101" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U101" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:21">
+      <c r="C102" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6">
+        <v>1</v>
+      </c>
+      <c r="J102" s="6">
+        <v>4</v>
+      </c>
+      <c r="K102" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N102" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O102" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P102" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>0</v>
+      </c>
+      <c r="R102" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S102" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U102" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:21">
+      <c r="C103" s="1">
+        <v>1019</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6">
+        <v>4</v>
+      </c>
+      <c r="K103" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N103" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O103" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P103" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>0</v>
+      </c>
+      <c r="R103" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S103" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U103" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:21">
+      <c r="C104" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6">
+        <v>2</v>
+      </c>
+      <c r="J104" s="6">
+        <v>4</v>
+      </c>
+      <c r="K104" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N104" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O104" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P104" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0</v>
+      </c>
+      <c r="R104" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S104" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U104" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:21">
+      <c r="C105" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="6">
+        <v>2</v>
+      </c>
+      <c r="J105" s="6">
+        <v>4</v>
+      </c>
+      <c r="K105" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N105" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O105" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P105" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>0</v>
+      </c>
+      <c r="R105" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S105" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U105" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:21">
+      <c r="C106" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6">
+        <v>2</v>
+      </c>
+      <c r="J106" s="6">
+        <v>4</v>
+      </c>
+      <c r="K106" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N106" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O106" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P106" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>0</v>
+      </c>
+      <c r="R106" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S106" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U106" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="3:21">
+      <c r="C107" s="1">
+        <v>1023</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>2</v>
+      </c>
+      <c r="J107" s="6">
+        <v>4</v>
+      </c>
+      <c r="K107" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N107" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O107" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P107" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>0</v>
+      </c>
+      <c r="R107" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S107" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U107" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="3:21">
+      <c r="C108" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>2</v>
+      </c>
+      <c r="J108" s="6">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N108" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O108" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P108" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>0</v>
+      </c>
+      <c r="R108" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S108" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U108" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="3:21">
+      <c r="C109" s="1">
+        <v>1025</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
+        <v>2</v>
+      </c>
+      <c r="J109" s="6">
+        <v>4</v>
+      </c>
+      <c r="K109" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N109" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O109" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P109" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>0</v>
+      </c>
+      <c r="R109" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S109" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U109" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="3:21">
+      <c r="C110" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <v>2</v>
+      </c>
+      <c r="J110" s="6">
+        <v>4</v>
+      </c>
+      <c r="K110" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N110" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O110" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P110" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>0</v>
+      </c>
+      <c r="R110" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S110" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U110" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="3:21">
+      <c r="C111" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6">
+        <v>2</v>
+      </c>
+      <c r="J111" s="6">
+        <v>4</v>
+      </c>
+      <c r="K111" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N111" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O111" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P111" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>0</v>
+      </c>
+      <c r="R111" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S111" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U111" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="3:21">
+      <c r="C112" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
+        <v>2</v>
+      </c>
+      <c r="J112" s="6">
+        <v>4</v>
+      </c>
+      <c r="K112" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N112" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O112" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P112" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>0</v>
+      </c>
+      <c r="R112" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S112" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U112" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="3:21">
+      <c r="C113" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6">
+        <v>2</v>
+      </c>
+      <c r="J113" s="6">
+        <v>4</v>
+      </c>
+      <c r="K113" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N113" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O113" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P113" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>0</v>
+      </c>
+      <c r="R113" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S113" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U113" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="3:21">
+      <c r="C114" s="1">
+        <v>1030</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6">
+        <v>3</v>
+      </c>
+      <c r="J114" s="6">
+        <v>4</v>
+      </c>
+      <c r="K114" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N114" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O114" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P114" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>0</v>
+      </c>
+      <c r="R114" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S114" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U114" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="3:21">
+      <c r="C115" s="1">
+        <v>1031</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
+        <v>3</v>
+      </c>
+      <c r="J115" s="6">
+        <v>4</v>
+      </c>
+      <c r="K115" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N115" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O115" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P115" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>0</v>
+      </c>
+      <c r="R115" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S115" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U115" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="3:21">
+      <c r="C116" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6">
+        <v>3</v>
+      </c>
+      <c r="J116" s="6">
+        <v>4</v>
+      </c>
+      <c r="K116" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N116" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O116" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P116" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>0</v>
+      </c>
+      <c r="R116" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S116" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U116" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="3:21">
+      <c r="C117" s="1">
+        <v>1033</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6">
+        <v>3</v>
+      </c>
+      <c r="J117" s="6">
+        <v>4</v>
+      </c>
+      <c r="K117" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N117" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O117" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P117" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>0</v>
+      </c>
+      <c r="R117" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S117" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U117" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="3:21">
+      <c r="C118" s="1">
+        <v>1034</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6">
+        <v>3</v>
+      </c>
+      <c r="J118" s="6">
+        <v>4</v>
+      </c>
+      <c r="K118" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N118" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O118" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P118" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="8">
+        <v>0</v>
+      </c>
+      <c r="R118" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S118" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U118" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="3:21">
+      <c r="C119" s="1">
+        <v>1035</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6">
+        <v>3</v>
+      </c>
+      <c r="J119" s="6">
+        <v>4</v>
+      </c>
+      <c r="K119" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N119" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O119" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P119" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="8">
+        <v>0</v>
+      </c>
+      <c r="R119" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S119" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U119" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="3:21">
+      <c r="C120" s="1">
+        <v>1036</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6">
+        <v>3</v>
+      </c>
+      <c r="J120" s="6">
+        <v>4</v>
+      </c>
+      <c r="K120" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N120" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O120" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P120" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="8">
+        <v>0</v>
+      </c>
+      <c r="R120" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S120" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U120" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="3:21">
+      <c r="C121" s="1">
+        <v>1037</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6">
+        <v>3</v>
+      </c>
+      <c r="J121" s="6">
+        <v>4</v>
+      </c>
+      <c r="K121" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N121" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O121" s="8">
+        <f t="shared" ref="O121:O152" si="4">(N121-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P121" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="8">
+        <v>0</v>
+      </c>
+      <c r="R121" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S121" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U121" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="3:21">
+      <c r="C122" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6">
+        <v>3</v>
+      </c>
+      <c r="J122" s="6">
+        <v>4</v>
+      </c>
+      <c r="K122" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N122" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O122" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P122" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="8">
+        <v>0</v>
+      </c>
+      <c r="R122" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S122" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U122" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="3:21">
+      <c r="C123" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6">
+        <v>3</v>
+      </c>
+      <c r="J123" s="6">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N123" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O123" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P123" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="8">
+        <v>0</v>
+      </c>
+      <c r="R123" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S123" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U123" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="3:21">
+      <c r="C124" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124" s="6">
+        <v>4</v>
+      </c>
+      <c r="J124" s="6">
+        <v>4</v>
+      </c>
+      <c r="K124" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N124" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O124" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P124" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="8">
+        <v>0</v>
+      </c>
+      <c r="R124" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S124" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U124" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="3:21">
+      <c r="C125" s="1">
+        <v>1041</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6">
+        <v>4</v>
+      </c>
+      <c r="J125" s="6">
+        <v>4</v>
+      </c>
+      <c r="K125" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N125" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O125" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P125" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="8">
+        <v>0</v>
+      </c>
+      <c r="R125" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S125" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U125" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="3:21">
+      <c r="C126" s="1">
+        <v>1042</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6">
+        <v>4</v>
+      </c>
+      <c r="J126" s="6">
+        <v>4</v>
+      </c>
+      <c r="K126" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N126" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O126" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P126" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="8">
+        <v>0</v>
+      </c>
+      <c r="R126" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S126" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U126" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="3:21">
+      <c r="C127" s="1">
+        <v>1043</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="6">
+        <v>4</v>
+      </c>
+      <c r="J127" s="6">
+        <v>4</v>
+      </c>
+      <c r="K127" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N127" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O127" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P127" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="8">
+        <v>0</v>
+      </c>
+      <c r="R127" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S127" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U127" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="3:21">
+      <c r="C128" s="1">
+        <v>1044</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="I128" s="6">
+        <v>4</v>
+      </c>
+      <c r="J128" s="6">
+        <v>4</v>
+      </c>
+      <c r="K128" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N128" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O128" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P128" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="8">
+        <v>0</v>
+      </c>
+      <c r="R128" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S128" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U128" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="3:21">
+      <c r="C129" s="1">
+        <v>1045</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="I129" s="6">
+        <v>4</v>
+      </c>
+      <c r="J129" s="6">
+        <v>4</v>
+      </c>
+      <c r="K129" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N129" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O129" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P129" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>0</v>
+      </c>
+      <c r="R129" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S129" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U129" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="3:21">
+      <c r="C130" s="1">
+        <v>1046</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+      <c r="I130" s="6">
+        <v>4</v>
+      </c>
+      <c r="J130" s="6">
+        <v>4</v>
+      </c>
+      <c r="K130" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N130" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O130" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P130" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>0</v>
+      </c>
+      <c r="R130" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S130" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U130" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="3:21">
+      <c r="C131" s="1">
+        <v>1047</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+      <c r="I131" s="6">
+        <v>4</v>
+      </c>
+      <c r="J131" s="6">
+        <v>4</v>
+      </c>
+      <c r="K131" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N131" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O131" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P131" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="8">
+        <v>0</v>
+      </c>
+      <c r="R131" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S131" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U131" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="3:21">
+      <c r="C132" s="1">
+        <v>1048</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132" s="6">
+        <v>4</v>
+      </c>
+      <c r="J132" s="6">
+        <v>4</v>
+      </c>
+      <c r="K132" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N132" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O132" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P132" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="8">
+        <v>0</v>
+      </c>
+      <c r="R132" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S132" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U132" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="3:21">
+      <c r="C133" s="1">
+        <v>1049</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+      <c r="I133" s="6">
+        <v>4</v>
+      </c>
+      <c r="J133" s="6">
+        <v>4</v>
+      </c>
+      <c r="K133" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N133" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O133" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P133" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="8">
+        <v>0</v>
+      </c>
+      <c r="R133" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S133" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U133" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="3:21">
+      <c r="C134" s="1">
+        <v>1050</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+      <c r="I134" s="6">
+        <v>5</v>
+      </c>
+      <c r="J134" s="6">
+        <v>4</v>
+      </c>
+      <c r="K134" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N134" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O134" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P134" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="8">
+        <v>0</v>
+      </c>
+      <c r="R134" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S134" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U134" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="3:21">
+      <c r="C135" s="1">
+        <v>1051</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H135" s="1">
+        <v>1</v>
+      </c>
+      <c r="I135" s="6">
+        <v>5</v>
+      </c>
+      <c r="J135" s="6">
+        <v>4</v>
+      </c>
+      <c r="K135" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N135" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O135" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P135" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="8">
+        <v>0</v>
+      </c>
+      <c r="R135" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S135" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U135" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="3:21">
+      <c r="C136" s="1">
+        <v>1052</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
+      <c r="I136" s="6">
+        <v>5</v>
+      </c>
+      <c r="J136" s="6">
+        <v>4</v>
+      </c>
+      <c r="K136" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N136" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O136" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P136" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="8">
+        <v>0</v>
+      </c>
+      <c r="R136" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S136" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U136" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="3:21">
+      <c r="C137" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="6">
+        <v>5</v>
+      </c>
+      <c r="J137" s="6">
+        <v>4</v>
+      </c>
+      <c r="K137" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N137" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O137" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P137" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="8">
+        <v>0</v>
+      </c>
+      <c r="R137" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S137" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U137" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="3:21">
+      <c r="C138" s="1">
+        <v>1054</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="6">
+        <v>5</v>
+      </c>
+      <c r="J138" s="6">
+        <v>4</v>
+      </c>
+      <c r="K138" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N138" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O138" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P138" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="8">
+        <v>0</v>
+      </c>
+      <c r="R138" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S138" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U138" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="3:21">
+      <c r="C139" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="6">
+        <v>5</v>
+      </c>
+      <c r="J139" s="6">
+        <v>4</v>
+      </c>
+      <c r="K139" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N139" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O139" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P139" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="8">
+        <v>0</v>
+      </c>
+      <c r="R139" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S139" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U139" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="3:21">
+      <c r="C140" s="1">
+        <v>1056</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="6">
+        <v>5</v>
+      </c>
+      <c r="J140" s="6">
+        <v>4</v>
+      </c>
+      <c r="K140" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N140" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O140" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P140" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="8">
+        <v>0</v>
+      </c>
+      <c r="R140" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S140" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U140" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="3:21">
+      <c r="C141" s="1">
+        <v>1057</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
+      <c r="I141" s="6">
+        <v>5</v>
+      </c>
+      <c r="J141" s="6">
+        <v>4</v>
+      </c>
+      <c r="K141" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N141" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O141" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P141" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="8">
+        <v>0</v>
+      </c>
+      <c r="R141" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S141" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U141" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="3:21">
+      <c r="C142" s="1">
+        <v>1058</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
+      <c r="I142" s="6">
+        <v>5</v>
+      </c>
+      <c r="J142" s="6">
+        <v>4</v>
+      </c>
+      <c r="K142" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N142" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O142" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P142" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="8">
+        <v>0</v>
+      </c>
+      <c r="R142" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S142" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U142" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="3:21">
+      <c r="C143" s="1">
+        <v>1059</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
+      <c r="I143" s="6">
+        <v>5</v>
+      </c>
+      <c r="J143" s="6">
+        <v>4</v>
+      </c>
+      <c r="K143" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N143" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O143" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P143" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="8">
+        <v>0</v>
+      </c>
+      <c r="R143" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S143" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U143" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="3:21">
+      <c r="C144" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H144" s="1">
+        <v>1</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0</v>
+      </c>
+      <c r="J144" s="6">
+        <v>4</v>
+      </c>
+      <c r="K144" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N144" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O144" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P144" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="8">
+        <v>0</v>
+      </c>
+      <c r="R144" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S144" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U144" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="3:21">
+      <c r="C145" s="1">
+        <v>1061</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
+      <c r="J145" s="6">
+        <v>4</v>
+      </c>
+      <c r="K145" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N145" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O145" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P145" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="8">
+        <v>0</v>
+      </c>
+      <c r="R145" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S145" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U145" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="3:21">
+      <c r="C146" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H146" s="1">
+        <v>1</v>
+      </c>
+      <c r="I146" s="6">
+        <v>0</v>
+      </c>
+      <c r="J146" s="6">
+        <v>4</v>
+      </c>
+      <c r="K146" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N146" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O146" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P146" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="8">
+        <v>0</v>
+      </c>
+      <c r="R146" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S146" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U146" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="3:21">
+      <c r="C147" s="1">
+        <v>1063</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
+      <c r="J147" s="6">
+        <v>4</v>
+      </c>
+      <c r="K147" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N147" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O147" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P147" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="8">
+        <v>0</v>
+      </c>
+      <c r="R147" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S147" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U147" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="3:21">
+      <c r="C148" s="1">
+        <v>1064</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0</v>
+      </c>
+      <c r="J148" s="6">
+        <v>4</v>
+      </c>
+      <c r="K148" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N148" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O148" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P148" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="8">
+        <v>0</v>
+      </c>
+      <c r="R148" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S148" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U148" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="3:21">
+      <c r="C149" s="1">
+        <v>1065</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H149" s="1">
+        <v>1</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
+      <c r="J149" s="6">
+        <v>4</v>
+      </c>
+      <c r="K149" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N149" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O149" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P149" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="8">
+        <v>0</v>
+      </c>
+      <c r="R149" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S149" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U149" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="3:21">
+      <c r="C150" s="1">
+        <v>1066</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H150" s="1">
+        <v>1</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0</v>
+      </c>
+      <c r="J150" s="6">
+        <v>4</v>
+      </c>
+      <c r="K150" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N150" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O150" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P150" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="8">
+        <v>0</v>
+      </c>
+      <c r="R150" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S150" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U150" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="3:21">
+      <c r="C151" s="1">
+        <v>1067</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H151" s="1">
+        <v>1</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6">
+        <v>4</v>
+      </c>
+      <c r="K151" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N151" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O151" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P151" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="8">
+        <v>0</v>
+      </c>
+      <c r="R151" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S151" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U151" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="3:21">
+      <c r="C152" s="1">
+        <v>1068</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H152" s="1">
+        <v>1</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6">
+        <v>4</v>
+      </c>
+      <c r="K152" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N152" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O152" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P152" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="8">
+        <v>0</v>
+      </c>
+      <c r="R152" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S152" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U152" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="3:21">
+      <c r="C153" s="1">
+        <v>1069</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H153" s="1">
+        <v>1</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6">
+        <v>4</v>
+      </c>
+      <c r="K153" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N153" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O153" s="8">
+        <f t="shared" ref="O153:O178" si="5">(N153-70*365-19)*86400-8*3600</f>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P153" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="8">
+        <v>0</v>
+      </c>
+      <c r="R153" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S153" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U153" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="3:21">
+      <c r="C154" s="1">
+        <v>1070</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H154" s="1">
+        <v>1</v>
+      </c>
+      <c r="I154" s="6">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6">
+        <v>4</v>
+      </c>
+      <c r="K154" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N154" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O154" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P154" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="8">
+        <v>0</v>
+      </c>
+      <c r="R154" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S154" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U154" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="3:21">
+      <c r="C155" s="1">
+        <v>1071</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H155" s="1">
+        <v>1</v>
+      </c>
+      <c r="I155" s="6">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6">
+        <v>4</v>
+      </c>
+      <c r="K155" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N155" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O155" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P155" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="8">
+        <v>0</v>
+      </c>
+      <c r="R155" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S155" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U155" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="3:21">
+      <c r="C156" s="1">
+        <v>1072</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1</v>
+      </c>
+      <c r="I156" s="6">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6">
+        <v>4</v>
+      </c>
+      <c r="K156" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N156" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O156" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P156" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="8">
+        <v>0</v>
+      </c>
+      <c r="R156" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S156" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U156" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="3:21">
+      <c r="C157" s="1">
+        <v>1073</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H157" s="1">
+        <v>1</v>
+      </c>
+      <c r="I157" s="6">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6">
+        <v>4</v>
+      </c>
+      <c r="K157" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N157" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O157" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P157" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="8">
+        <v>0</v>
+      </c>
+      <c r="R157" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S157" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U157" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="3:21">
+      <c r="C158" s="1">
+        <v>1074</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H158" s="1">
+        <v>1</v>
+      </c>
+      <c r="I158" s="6">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6">
+        <v>4</v>
+      </c>
+      <c r="K158" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N158" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O158" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P158" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="8">
+        <v>0</v>
+      </c>
+      <c r="R158" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S158" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U158" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="3:21">
+      <c r="C159" s="1">
+        <v>1075</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H159" s="1">
+        <v>1</v>
+      </c>
+      <c r="I159" s="6">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6">
+        <v>4</v>
+      </c>
+      <c r="K159" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N159" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O159" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P159" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="8">
+        <v>0</v>
+      </c>
+      <c r="R159" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S159" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U159" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="3:21">
+      <c r="C160" s="1">
+        <v>1076</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H160" s="1">
+        <v>1</v>
+      </c>
+      <c r="I160" s="6">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6">
+        <v>4</v>
+      </c>
+      <c r="K160" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N160" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O160" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P160" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="8">
+        <v>0</v>
+      </c>
+      <c r="R160" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S160" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U160" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="3:21">
+      <c r="C161" s="1">
+        <v>1077</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H161" s="1">
+        <v>1</v>
+      </c>
+      <c r="I161" s="6">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6">
+        <v>4</v>
+      </c>
+      <c r="K161" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N161" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O161" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P161" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="8">
+        <v>0</v>
+      </c>
+      <c r="R161" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S161" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U161" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="3:21">
+      <c r="C162" s="1">
+        <v>1078</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H162" s="1">
+        <v>1</v>
+      </c>
+      <c r="I162" s="6">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6">
+        <v>4</v>
+      </c>
+      <c r="K162" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N162" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O162" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P162" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="8">
+        <v>0</v>
+      </c>
+      <c r="R162" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S162" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U162" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="3:21">
+      <c r="C163" s="1">
+        <v>1079</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H163" s="1">
+        <v>1</v>
+      </c>
+      <c r="I163" s="6">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6">
+        <v>4</v>
+      </c>
+      <c r="K163" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N163" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O163" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P163" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="8">
+        <v>0</v>
+      </c>
+      <c r="R163" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S163" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U163" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="3:21">
+      <c r="C164" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1</v>
+      </c>
+      <c r="I164" s="6">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6">
+        <v>4</v>
+      </c>
+      <c r="K164" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N164" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O164" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P164" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="8">
+        <v>0</v>
+      </c>
+      <c r="R164" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S164" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U164" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="3:21">
+      <c r="C165" s="1">
+        <v>1081</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1</v>
+      </c>
+      <c r="I165" s="6">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6">
+        <v>4</v>
+      </c>
+      <c r="K165" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N165" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O165" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P165" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="8">
+        <v>0</v>
+      </c>
+      <c r="R165" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S165" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U165" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="3:21">
+      <c r="C166" s="1">
+        <v>1082</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H166" s="1">
+        <v>1</v>
+      </c>
+      <c r="I166" s="6">
+        <v>0</v>
+      </c>
+      <c r="J166" s="6">
+        <v>4</v>
+      </c>
+      <c r="K166" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N166" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O166" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P166" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="8">
+        <v>0</v>
+      </c>
+      <c r="R166" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S166" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U166" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="3:21">
+      <c r="C167" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H167" s="1">
+        <v>1</v>
+      </c>
+      <c r="I167" s="6">
+        <v>0</v>
+      </c>
+      <c r="J167" s="6">
+        <v>4</v>
+      </c>
+      <c r="K167" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N167" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O167" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P167" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="8">
+        <v>0</v>
+      </c>
+      <c r="R167" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S167" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U167" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="3:21">
+      <c r="C168" s="1">
+        <v>1084</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H168" s="1">
+        <v>1</v>
+      </c>
+      <c r="I168" s="6">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6">
+        <v>4</v>
+      </c>
+      <c r="K168" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N168" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O168" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P168" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="8">
+        <v>0</v>
+      </c>
+      <c r="R168" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S168" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U168" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="3:21">
+      <c r="C169" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H169" s="1">
+        <v>1</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6">
+        <v>4</v>
+      </c>
+      <c r="K169" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N169" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O169" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P169" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="8">
+        <v>0</v>
+      </c>
+      <c r="R169" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S169" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U169" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="3:21">
+      <c r="C170" s="1">
+        <v>1086</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H170" s="1">
+        <v>1</v>
+      </c>
+      <c r="I170" s="6">
+        <v>0</v>
+      </c>
+      <c r="J170" s="6">
+        <v>4</v>
+      </c>
+      <c r="K170" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N170" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O170" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P170" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="8">
+        <v>0</v>
+      </c>
+      <c r="R170" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S170" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U170" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="3:21">
+      <c r="C171" s="1">
+        <v>1087</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H171" s="1">
+        <v>1</v>
+      </c>
+      <c r="I171" s="6">
+        <v>0</v>
+      </c>
+      <c r="J171" s="6">
+        <v>4</v>
+      </c>
+      <c r="K171" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N171" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O171" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P171" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="8">
+        <v>0</v>
+      </c>
+      <c r="R171" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S171" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U171" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="3:21">
+      <c r="C172" s="1">
+        <v>1088</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H172" s="1">
+        <v>1</v>
+      </c>
+      <c r="I172" s="6">
+        <v>0</v>
+      </c>
+      <c r="J172" s="6">
+        <v>4</v>
+      </c>
+      <c r="K172" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N172" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O172" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P172" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="8">
+        <v>0</v>
+      </c>
+      <c r="R172" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S172" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U172" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="3:21">
+      <c r="C173" s="1">
+        <v>1089</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H173" s="1">
+        <v>1</v>
+      </c>
+      <c r="I173" s="6">
+        <v>0</v>
+      </c>
+      <c r="J173" s="6">
+        <v>4</v>
+      </c>
+      <c r="K173" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N173" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O173" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P173" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="8">
+        <v>0</v>
+      </c>
+      <c r="R173" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S173" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U173" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="3:21">
+      <c r="C174" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H174" s="1">
+        <v>2</v>
+      </c>
+      <c r="I174" s="6">
+        <v>0</v>
+      </c>
+      <c r="J174" s="6">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N174" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O174" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P174" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="8">
+        <v>0</v>
+      </c>
+      <c r="R174" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S174" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U174" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="3:21">
+      <c r="C175" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H175" s="1">
+        <v>2</v>
+      </c>
+      <c r="I175" s="6">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6">
+        <v>1</v>
+      </c>
+      <c r="K175" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N175" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O175" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P175" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="8">
+        <v>0</v>
+      </c>
+      <c r="R175" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S175" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U175" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="3:21">
+      <c r="C176" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H176" s="1">
+        <v>2</v>
+      </c>
+      <c r="I176" s="6">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6">
+        <v>2</v>
+      </c>
+      <c r="K176" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N176" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O176" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P176" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="8">
+        <v>0</v>
+      </c>
+      <c r="R176" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S176" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U176" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="3:21">
+      <c r="C177" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H177" s="1">
+        <v>2</v>
+      </c>
+      <c r="I177" s="6">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6">
+        <v>3</v>
+      </c>
+      <c r="K177" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N177" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O177" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P177" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="8">
+        <v>0</v>
+      </c>
+      <c r="R177" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S177" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U177" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="3:21">
+      <c r="C178" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H178" s="1">
+        <v>2</v>
+      </c>
+      <c r="I178" s="6">
+        <v>0</v>
+      </c>
+      <c r="J178" s="6">
+        <v>4</v>
+      </c>
+      <c r="K178" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N178" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="O178" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="P178" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="8">
+        <v>0</v>
+      </c>
+      <c r="R178" s="8">
+        <v>1000</v>
+      </c>
+      <c r="S178" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U178" s="6">
         <v>-1</v>
       </c>
     </row>

--- a/config/excel/Item.xlsx
+++ b/config/excel/Item.xlsx
@@ -1073,10 +1073,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1101,58 +1101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,32 +1122,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,6 +1153,74 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1221,16 +1229,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,7 +1238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,55 +1276,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1324,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,109 +1450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,6 +1485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1496,6 +1505,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,40 +1553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,31 +1582,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,133 +1600,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2944,8 +2944,8 @@
   <sheetPr/>
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144:D153"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>

--- a/config/excel/Item.xlsx
+++ b/config/excel/Item.xlsx
@@ -38,25 +38,25 @@
           </rPr>
           <t xml:space="preserve">
 1-9：卡牌升级经验药水
-10-19：卡牌突破道具
-20-29：卡牌技能升级道具
-30-39：卡牌觉醒道具
-40-49：装备经验道具
-50-59：装备突破道具
-60-69：晶石经验道具
-70-79：收集品升星道具
-80-89：收集品觉醒道具
-90-99：宠物升级道具
-100-109：体力道具
-110-119：抽卡道具
-120-499：各种卡牌碎片
+10-99：卡牌突破道具
+100-109：卡牌技能升级道具
+110-149：卡牌觉醒道具
+150-159：装备经验道具
+160-199：装备突破道具
+200-209：晶石经验道具
+210-219：收集品升星道具
+220-239：收集品觉醒道具
+240-249：宠物升级道具
+250-259：体力道具
+260-269：抽卡道具
+270-499：各种卡牌碎片
 500-599：礼物道具
 600-699：换肤道具
 700-799：家园道具
 800-999：礼包
 1000-1999：装备
 2000-2999：晶石
-</t>
+3000-3999：收集品</t>
         </r>
       </text>
     </comment>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="341">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -276,34 +276,79 @@
     <t>卡牌升级经验药水5</t>
   </si>
   <si>
-    <t>卡牌突破道具1</t>
+    <t>卡牌种族1突破道具1</t>
   </si>
   <si>
     <t>第1次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具2</t>
+    <t>卡牌种族1突破道具2</t>
   </si>
   <si>
     <t>第2次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具3</t>
+    <t>卡牌种族1突破道具3</t>
   </si>
   <si>
     <t>第3次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具4</t>
+    <t>卡牌种族1突破道具4</t>
   </si>
   <si>
     <t>第4次突破道具</t>
   </si>
   <si>
-    <t>卡牌突破道具5</t>
+    <t>卡牌种族1突破道具5</t>
   </si>
   <si>
     <t>第5次突破道具</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具1</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具2</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具3</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具4</t>
+  </si>
+  <si>
+    <t>卡牌种族2突破道具5</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具1</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具2</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具3</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具4</t>
+  </si>
+  <si>
+    <t>卡牌种族3突破道具5</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具1</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具2</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具3</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具4</t>
+  </si>
+  <si>
+    <t>卡牌种族4突破道具5</t>
   </si>
   <si>
     <t>卡牌技能升级道具1</t>
@@ -1067,10 +1112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1087,6 +1132,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -1094,9 +1168,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,39 +1231,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1162,75 +1260,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1270,7 +1315,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,13 +1399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,13 +1423,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,121 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,20 +1524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,32 +1570,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1570,157 +1586,186 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2936,10 +2981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T178"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:C173"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -3782,7 +3827,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" ref="N16:N47" si="1">(M16-70*365-19)*86400-8*3600</f>
+        <f t="shared" ref="N16:N31" si="1">(M16-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O16" s="8">
@@ -3805,20 +3850,20 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:20">
-      <c r="C17" s="1">
-        <v>20</v>
+      <c r="C17" s="6">
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -3862,20 +3907,20 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:20">
-      <c r="C18" s="1">
-        <v>21</v>
+      <c r="C18" s="6">
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -3919,20 +3964,20 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:20">
-      <c r="C19" s="1">
-        <v>22</v>
+      <c r="C19" s="6">
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -3976,20 +4021,20 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:20">
-      <c r="C20" s="1">
-        <v>23</v>
+      <c r="C20" s="6">
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
@@ -4033,14 +4078,14 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:20">
-      <c r="C21" s="1">
-        <v>24</v>
+      <c r="C21" s="6">
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>57</v>
@@ -4090,20 +4135,20 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:20">
-      <c r="C22" s="1">
-        <v>30</v>
+      <c r="C22" s="6">
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -4147,20 +4192,20 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:20">
-      <c r="C23" s="1">
-        <v>31</v>
+      <c r="C23" s="6">
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -4204,20 +4249,20 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:20">
-      <c r="C24" s="1">
-        <v>32</v>
+      <c r="C24" s="6">
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="6">
         <v>0</v>
@@ -4261,20 +4306,20 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:20">
-      <c r="C25" s="1">
-        <v>33</v>
+      <c r="C25" s="6">
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -4318,14 +4363,14 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:20">
-      <c r="C26" s="1">
-        <v>34</v>
+      <c r="C26" s="6">
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>57</v>
@@ -4375,20 +4420,20 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:20">
-      <c r="C27" s="1">
-        <v>40</v>
+      <c r="C27" s="6">
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
@@ -4432,20 +4477,20 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:20">
-      <c r="C28" s="1">
-        <v>41</v>
+      <c r="C28" s="6">
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="6">
         <v>0</v>
@@ -4489,20 +4534,20 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:20">
-      <c r="C29" s="1">
-        <v>42</v>
+      <c r="C29" s="6">
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
@@ -4546,20 +4591,20 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:20">
-      <c r="C30" s="1">
-        <v>43</v>
+      <c r="C30" s="6">
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
@@ -4603,14 +4648,14 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:20">
-      <c r="C31" s="1">
-        <v>44</v>
+      <c r="C31" s="6">
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>57</v>
@@ -4661,7 +4706,7 @@
     </row>
     <row r="32" customHeight="1" spans="3:20">
       <c r="C32" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>89</v>
@@ -4694,7 +4739,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N32:N62" si="2">(M32-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O32" s="8">
@@ -4718,7 +4763,7 @@
     </row>
     <row r="33" customHeight="1" spans="3:20">
       <c r="C33" s="1">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>90</v>
@@ -4751,7 +4796,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O33" s="8">
@@ -4775,7 +4820,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:20">
       <c r="C34" s="1">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>91</v>
@@ -4808,7 +4853,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O34" s="8">
@@ -4832,7 +4877,7 @@
     </row>
     <row r="35" customHeight="1" spans="3:20">
       <c r="C35" s="1">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>92</v>
@@ -4865,7 +4910,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O35" s="8">
@@ -4889,7 +4934,7 @@
     </row>
     <row r="36" customHeight="1" spans="3:20">
       <c r="C36" s="1">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>93</v>
@@ -4922,7 +4967,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O36" s="8">
@@ -4946,7 +4991,7 @@
     </row>
     <row r="37" customHeight="1" spans="3:20">
       <c r="C37" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>94</v>
@@ -4979,7 +5024,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O37" s="8">
@@ -5003,7 +5048,7 @@
     </row>
     <row r="38" customHeight="1" spans="3:20">
       <c r="C38" s="1">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>95</v>
@@ -5036,7 +5081,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O38" s="8">
@@ -5060,7 +5105,7 @@
     </row>
     <row r="39" customHeight="1" spans="3:20">
       <c r="C39" s="1">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>96</v>
@@ -5093,7 +5138,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O39" s="8">
@@ -5117,7 +5162,7 @@
     </row>
     <row r="40" customHeight="1" spans="3:20">
       <c r="C40" s="1">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>97</v>
@@ -5150,7 +5195,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O40" s="8">
@@ -5174,7 +5219,7 @@
     </row>
     <row r="41" customHeight="1" spans="3:20">
       <c r="C41" s="1">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>98</v>
@@ -5207,7 +5252,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O41" s="8">
@@ -5231,7 +5276,7 @@
     </row>
     <row r="42" customHeight="1" spans="3:20">
       <c r="C42" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>99</v>
@@ -5264,7 +5309,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O42" s="8">
@@ -5288,7 +5333,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:20">
       <c r="C43" s="1">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>100</v>
@@ -5321,7 +5366,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O43" s="8">
@@ -5345,7 +5390,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:20">
       <c r="C44" s="1">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>101</v>
@@ -5378,7 +5423,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O44" s="8">
@@ -5402,7 +5447,7 @@
     </row>
     <row r="45" customHeight="1" spans="3:20">
       <c r="C45" s="1">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>102</v>
@@ -5435,7 +5480,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O45" s="8">
@@ -5459,7 +5504,7 @@
     </row>
     <row r="46" customHeight="1" spans="3:20">
       <c r="C46" s="1">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>103</v>
@@ -5492,7 +5537,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O46" s="8">
@@ -5516,7 +5561,7 @@
     </row>
     <row r="47" customHeight="1" spans="3:20">
       <c r="C47" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>104</v>
@@ -5549,7 +5594,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O47" s="8">
@@ -5573,7 +5618,7 @@
     </row>
     <row r="48" customHeight="1" spans="3:20">
       <c r="C48" s="1">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>105</v>
@@ -5606,7 +5651,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" ref="N48:N93" si="2">(M48-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="2"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O48" s="8">
@@ -5630,7 +5675,7 @@
     </row>
     <row r="49" customHeight="1" spans="3:20">
       <c r="C49" s="1">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>106</v>
@@ -5687,7 +5732,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:20">
       <c r="C50" s="1">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>107</v>
@@ -5744,7 +5789,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:20">
       <c r="C51" s="1">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>108</v>
@@ -5801,7 +5846,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:20">
       <c r="C52" s="1">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>109</v>
@@ -5858,7 +5903,7 @@
     </row>
     <row r="53" customHeight="1" spans="3:20">
       <c r="C53" s="1">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>110</v>
@@ -5915,7 +5960,7 @@
     </row>
     <row r="54" customHeight="1" spans="3:20">
       <c r="C54" s="1">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>111</v>
@@ -5972,7 +6017,7 @@
     </row>
     <row r="55" customHeight="1" spans="3:20">
       <c r="C55" s="1">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>112</v>
@@ -6029,7 +6074,7 @@
     </row>
     <row r="56" customHeight="1" spans="3:20">
       <c r="C56" s="1">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>113</v>
@@ -6086,7 +6131,7 @@
     </row>
     <row r="57" customHeight="1" spans="3:20">
       <c r="C57" s="1">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>114</v>
@@ -6143,7 +6188,7 @@
     </row>
     <row r="58" customHeight="1" spans="3:20">
       <c r="C58" s="1">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>115</v>
@@ -6200,7 +6245,7 @@
     </row>
     <row r="59" customHeight="1" spans="3:20">
       <c r="C59" s="1">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>116</v>
@@ -6257,7 +6302,7 @@
     </row>
     <row r="60" customHeight="1" spans="3:20">
       <c r="C60" s="1">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>117</v>
@@ -6314,7 +6359,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:20">
       <c r="C61" s="1">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>118</v>
@@ -6371,7 +6416,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:20">
       <c r="C62" s="1">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>119</v>
@@ -6391,7 +6436,7 @@
       <c r="I62" s="6">
         <v>0</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="6">
         <v>0</v>
       </c>
       <c r="K62" s="1">
@@ -6428,7 +6473,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:20">
       <c r="C63" s="1">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>120</v>
@@ -6449,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
         <v>9999</v>
@@ -6461,7 +6506,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N63:N108" si="3">(M63-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O63" s="8">
@@ -6485,7 +6530,7 @@
     </row>
     <row r="64" customHeight="1" spans="3:20">
       <c r="C64" s="1">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>121</v>
@@ -6506,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="1">
         <v>9999</v>
@@ -6518,7 +6563,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O64" s="8">
@@ -6542,7 +6587,7 @@
     </row>
     <row r="65" customHeight="1" spans="3:20">
       <c r="C65" s="1">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>122</v>
@@ -6563,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" s="1">
         <v>9999</v>
@@ -6575,7 +6620,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O65" s="8">
@@ -6599,7 +6644,7 @@
     </row>
     <row r="66" customHeight="1" spans="3:20">
       <c r="C66" s="1">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>123</v>
@@ -6620,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K66" s="1">
         <v>9999</v>
@@ -6632,7 +6677,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O66" s="8">
@@ -6656,7 +6701,7 @@
     </row>
     <row r="67" customHeight="1" spans="3:20">
       <c r="C67" s="1">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>124</v>
@@ -6677,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
         <v>9999</v>
@@ -6689,7 +6734,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O67" s="8">
@@ -6713,7 +6758,7 @@
     </row>
     <row r="68" customHeight="1" spans="3:20">
       <c r="C68" s="1">
-        <v>500</v>
+        <v>241</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>125</v>
@@ -6734,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
         <v>9999</v>
@@ -6746,7 +6791,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O68" s="8">
@@ -6770,7 +6815,7 @@
     </row>
     <row r="69" customHeight="1" spans="3:20">
       <c r="C69" s="1">
-        <v>501</v>
+        <v>242</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>126</v>
@@ -6791,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" s="1">
         <v>9999</v>
@@ -6803,7 +6848,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O69" s="8">
@@ -6827,7 +6872,7 @@
     </row>
     <row r="70" customHeight="1" spans="3:20">
       <c r="C70" s="1">
-        <v>502</v>
+        <v>243</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>127</v>
@@ -6848,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" s="1">
         <v>9999</v>
@@ -6860,7 +6905,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O70" s="8">
@@ -6884,7 +6929,7 @@
     </row>
     <row r="71" customHeight="1" spans="3:20">
       <c r="C71" s="1">
-        <v>503</v>
+        <v>244</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>128</v>
@@ -6905,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K71" s="1">
         <v>9999</v>
@@ -6917,7 +6962,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O71" s="8">
@@ -6941,7 +6986,7 @@
     </row>
     <row r="72" customHeight="1" spans="3:20">
       <c r="C72" s="1">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>129</v>
@@ -6962,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
         <v>9999</v>
@@ -6974,7 +7019,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O72" s="8">
@@ -6998,7 +7043,7 @@
     </row>
     <row r="73" customHeight="1" spans="3:20">
       <c r="C73" s="1">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>130</v>
@@ -7018,8 +7063,8 @@
       <c r="I73" s="6">
         <v>0</v>
       </c>
-      <c r="J73" s="1">
-        <v>0</v>
+      <c r="J73" s="6">
+        <v>1</v>
       </c>
       <c r="K73" s="1">
         <v>9999</v>
@@ -7031,7 +7076,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O73" s="8">
@@ -7055,7 +7100,7 @@
     </row>
     <row r="74" customHeight="1" spans="3:20">
       <c r="C74" s="1">
-        <v>601</v>
+        <v>252</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>131</v>
@@ -7075,8 +7120,8 @@
       <c r="I74" s="6">
         <v>0</v>
       </c>
-      <c r="J74" s="1">
-        <v>1</v>
+      <c r="J74" s="6">
+        <v>2</v>
       </c>
       <c r="K74" s="1">
         <v>9999</v>
@@ -7088,7 +7133,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O74" s="8">
@@ -7112,7 +7157,7 @@
     </row>
     <row r="75" customHeight="1" spans="3:20">
       <c r="C75" s="1">
-        <v>602</v>
+        <v>253</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>132</v>
@@ -7132,8 +7177,8 @@
       <c r="I75" s="6">
         <v>0</v>
       </c>
-      <c r="J75" s="1">
-        <v>2</v>
+      <c r="J75" s="6">
+        <v>3</v>
       </c>
       <c r="K75" s="1">
         <v>9999</v>
@@ -7145,7 +7190,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O75" s="8">
@@ -7169,7 +7214,7 @@
     </row>
     <row r="76" customHeight="1" spans="3:20">
       <c r="C76" s="1">
-        <v>700</v>
+        <v>254</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>133</v>
@@ -7190,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K76" s="1">
         <v>9999</v>
@@ -7202,7 +7247,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O76" s="8">
@@ -7226,7 +7271,7 @@
     </row>
     <row r="77" customHeight="1" spans="3:20">
       <c r="C77" s="1">
-        <v>701</v>
+        <v>260</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>134</v>
@@ -7246,8 +7291,8 @@
       <c r="I77" s="6">
         <v>0</v>
       </c>
-      <c r="J77" s="6">
-        <v>1</v>
+      <c r="J77" s="1">
+        <v>0</v>
       </c>
       <c r="K77" s="1">
         <v>9999</v>
@@ -7259,7 +7304,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O77" s="8">
@@ -7283,7 +7328,7 @@
     </row>
     <row r="78" customHeight="1" spans="3:20">
       <c r="C78" s="1">
-        <v>702</v>
+        <v>270</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>135</v>
@@ -7304,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
         <v>9999</v>
@@ -7316,7 +7361,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O78" s="8">
@@ -7340,7 +7385,7 @@
     </row>
     <row r="79" customHeight="1" spans="3:20">
       <c r="C79" s="1">
-        <v>703</v>
+        <v>271</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>136</v>
@@ -7361,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
         <v>9999</v>
@@ -7373,7 +7418,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O79" s="8">
@@ -7397,7 +7442,7 @@
     </row>
     <row r="80" customHeight="1" spans="3:20">
       <c r="C80" s="1">
-        <v>704</v>
+        <v>272</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>137</v>
@@ -7418,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K80" s="1">
         <v>9999</v>
@@ -7430,7 +7475,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O80" s="8">
@@ -7454,7 +7499,7 @@
     </row>
     <row r="81" customHeight="1" spans="3:20">
       <c r="C81" s="1">
-        <v>800</v>
+        <v>273</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>138</v>
@@ -7468,15 +7513,15 @@
       <c r="G81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
         <v>3</v>
       </c>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0</v>
-      </c>
       <c r="K81" s="1">
         <v>9999</v>
       </c>
@@ -7487,7 +7532,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O81" s="8">
@@ -7511,7 +7556,7 @@
     </row>
     <row r="82" customHeight="1" spans="3:20">
       <c r="C82" s="1">
-        <v>801</v>
+        <v>274</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>139</v>
@@ -7525,14 +7570,14 @@
       <c r="G82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H82" s="1">
-        <v>3</v>
+      <c r="H82" s="6">
+        <v>0</v>
       </c>
       <c r="I82" s="6">
         <v>0</v>
       </c>
-      <c r="J82" s="1">
-        <v>1</v>
+      <c r="J82" s="6">
+        <v>4</v>
       </c>
       <c r="K82" s="1">
         <v>9999</v>
@@ -7544,7 +7589,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O82" s="8">
@@ -7568,7 +7613,7 @@
     </row>
     <row r="83" customHeight="1" spans="3:20">
       <c r="C83" s="1">
-        <v>802</v>
+        <v>500</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>140</v>
@@ -7582,14 +7627,14 @@
       <c r="G83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="1">
-        <v>3</v>
+      <c r="H83" s="6">
+        <v>0</v>
       </c>
       <c r="I83" s="6">
         <v>0</v>
       </c>
-      <c r="J83" s="1">
-        <v>2</v>
+      <c r="J83" s="6">
+        <v>0</v>
       </c>
       <c r="K83" s="1">
         <v>9999</v>
@@ -7601,7 +7646,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O83" s="8">
@@ -7625,13 +7670,13 @@
     </row>
     <row r="84" customHeight="1" spans="3:20">
       <c r="C84" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D84" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>57</v>
@@ -7639,14 +7684,14 @@
       <c r="G84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H84" s="1">
-        <v>1</v>
+      <c r="H84" s="6">
+        <v>0</v>
       </c>
       <c r="I84" s="6">
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
         <v>9999</v>
@@ -7658,7 +7703,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O84" s="8">
@@ -7682,13 +7727,13 @@
     </row>
     <row r="85" customHeight="1" spans="3:20">
       <c r="C85" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>502</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>57</v>
@@ -7696,14 +7741,14 @@
       <c r="G85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H85" s="1">
-        <v>1</v>
+      <c r="H85" s="6">
+        <v>0</v>
       </c>
       <c r="I85" s="6">
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" s="1">
         <v>9999</v>
@@ -7715,7 +7760,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N85" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O85" s="8">
@@ -7739,13 +7784,13 @@
     </row>
     <row r="86" customHeight="1" spans="3:20">
       <c r="C86" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>145</v>
+        <v>503</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>57</v>
@@ -7753,14 +7798,14 @@
       <c r="G86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H86" s="1">
-        <v>1</v>
+      <c r="H86" s="6">
+        <v>0</v>
       </c>
       <c r="I86" s="6">
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K86" s="1">
         <v>9999</v>
@@ -7772,7 +7817,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N86" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O86" s="8">
@@ -7796,13 +7841,13 @@
     </row>
     <row r="87" customHeight="1" spans="3:20">
       <c r="C87" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>147</v>
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>57</v>
@@ -7810,14 +7855,14 @@
       <c r="G87" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H87" s="1">
-        <v>1</v>
+      <c r="H87" s="6">
+        <v>0</v>
       </c>
       <c r="I87" s="6">
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K87" s="1">
         <v>9999</v>
@@ -7829,7 +7874,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N87" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O87" s="8">
@@ -7853,13 +7898,13 @@
     </row>
     <row r="88" customHeight="1" spans="3:20">
       <c r="C88" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>149</v>
+        <v>600</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>57</v>
@@ -7867,14 +7912,14 @@
       <c r="G88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H88" s="1">
-        <v>1</v>
+      <c r="H88" s="6">
+        <v>0</v>
       </c>
       <c r="I88" s="6">
         <v>0</v>
       </c>
-      <c r="J88" s="6">
-        <v>4</v>
+      <c r="J88" s="1">
+        <v>0</v>
       </c>
       <c r="K88" s="1">
         <v>9999</v>
@@ -7886,7 +7931,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O88" s="8">
@@ -7910,13 +7955,13 @@
     </row>
     <row r="89" customHeight="1" spans="3:20">
       <c r="C89" s="1">
-        <v>1005</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>151</v>
+        <v>601</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>57</v>
@@ -7924,14 +7969,14 @@
       <c r="G89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="1">
-        <v>1</v>
+      <c r="H89" s="6">
+        <v>0</v>
       </c>
       <c r="I89" s="6">
         <v>0</v>
       </c>
-      <c r="J89" s="6">
-        <v>4</v>
+      <c r="J89" s="1">
+        <v>1</v>
       </c>
       <c r="K89" s="1">
         <v>9999</v>
@@ -7943,7 +7988,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N89" s="8">
-        <f t="shared" ref="N89:N120" si="3">(M89-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="3"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O89" s="8">
@@ -7967,13 +8012,13 @@
     </row>
     <row r="90" customHeight="1" spans="3:20">
       <c r="C90" s="1">
-        <v>1006</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>153</v>
+        <v>602</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>57</v>
@@ -7981,14 +8026,14 @@
       <c r="G90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H90" s="1">
-        <v>1</v>
+      <c r="H90" s="6">
+        <v>0</v>
       </c>
       <c r="I90" s="6">
         <v>0</v>
       </c>
-      <c r="J90" s="6">
-        <v>4</v>
+      <c r="J90" s="1">
+        <v>2</v>
       </c>
       <c r="K90" s="1">
         <v>9999</v>
@@ -8024,13 +8069,13 @@
     </row>
     <row r="91" customHeight="1" spans="3:20">
       <c r="C91" s="1">
-        <v>1007</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>155</v>
+        <v>700</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>57</v>
@@ -8038,14 +8083,14 @@
       <c r="G91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H91" s="1">
-        <v>1</v>
+      <c r="H91" s="6">
+        <v>0</v>
       </c>
       <c r="I91" s="6">
         <v>0</v>
       </c>
       <c r="J91" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
         <v>9999</v>
@@ -8081,13 +8126,13 @@
     </row>
     <row r="92" customHeight="1" spans="3:20">
       <c r="C92" s="1">
-        <v>1008</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>157</v>
+        <v>701</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>57</v>
@@ -8095,14 +8140,14 @@
       <c r="G92" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="1">
-        <v>1</v>
+      <c r="H92" s="6">
+        <v>0</v>
       </c>
       <c r="I92" s="6">
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K92" s="1">
         <v>9999</v>
@@ -8138,13 +8183,13 @@
     </row>
     <row r="93" customHeight="1" spans="3:20">
       <c r="C93" s="1">
-        <v>1009</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>159</v>
+        <v>702</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>57</v>
@@ -8152,14 +8197,14 @@
       <c r="G93" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H93" s="1">
-        <v>1</v>
+      <c r="H93" s="6">
+        <v>0</v>
       </c>
       <c r="I93" s="6">
         <v>0</v>
       </c>
       <c r="J93" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93" s="1">
         <v>9999</v>
@@ -8195,13 +8240,13 @@
     </row>
     <row r="94" customHeight="1" spans="3:20">
       <c r="C94" s="1">
-        <v>1010</v>
+        <v>703</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>57</v>
@@ -8209,14 +8254,14 @@
       <c r="G94" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H94" s="1">
-        <v>1</v>
+      <c r="H94" s="6">
+        <v>0</v>
       </c>
       <c r="I94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K94" s="1">
         <v>9999</v>
@@ -8252,13 +8297,13 @@
     </row>
     <row r="95" customHeight="1" spans="3:20">
       <c r="C95" s="1">
-        <v>1011</v>
+        <v>704</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>57</v>
@@ -8266,11 +8311,11 @@
       <c r="G95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="1">
-        <v>1</v>
+      <c r="H95" s="6">
+        <v>0</v>
       </c>
       <c r="I95" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="6">
         <v>4</v>
@@ -8309,13 +8354,13 @@
     </row>
     <row r="96" customHeight="1" spans="3:20">
       <c r="C96" s="1">
-        <v>1012</v>
+        <v>800</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>57</v>
@@ -8324,13 +8369,13 @@
         <v>60</v>
       </c>
       <c r="H96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96" s="6">
-        <v>1</v>
-      </c>
-      <c r="J96" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
       </c>
       <c r="K96" s="1">
         <v>9999</v>
@@ -8366,13 +8411,13 @@
     </row>
     <row r="97" customHeight="1" spans="3:20">
       <c r="C97" s="1">
-        <v>1013</v>
+        <v>801</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>57</v>
@@ -8381,13 +8426,13 @@
         <v>60</v>
       </c>
       <c r="H97" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97" s="6">
-        <v>1</v>
-      </c>
-      <c r="J97" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
       </c>
       <c r="K97" s="1">
         <v>9999</v>
@@ -8423,13 +8468,13 @@
     </row>
     <row r="98" customHeight="1" spans="3:20">
       <c r="C98" s="1">
-        <v>1014</v>
+        <v>802</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>57</v>
@@ -8438,13 +8483,13 @@
         <v>60</v>
       </c>
       <c r="H98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" s="6">
-        <v>1</v>
-      </c>
-      <c r="J98" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>2</v>
       </c>
       <c r="K98" s="1">
         <v>9999</v>
@@ -8480,13 +8525,13 @@
     </row>
     <row r="99" customHeight="1" spans="3:20">
       <c r="C99" s="1">
-        <v>1015</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>171</v>
+        <v>1000</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>57</v>
@@ -8498,10 +8543,10 @@
         <v>1</v>
       </c>
       <c r="I99" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
         <v>9999</v>
@@ -8537,13 +8582,13 @@
     </row>
     <row r="100" customHeight="1" spans="3:20">
       <c r="C100" s="1">
-        <v>1016</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>173</v>
+        <v>1001</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>57</v>
@@ -8555,10 +8600,10 @@
         <v>1</v>
       </c>
       <c r="I100" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K100" s="1">
         <v>9999</v>
@@ -8594,13 +8639,13 @@
     </row>
     <row r="101" customHeight="1" spans="3:20">
       <c r="C101" s="1">
-        <v>1017</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>175</v>
+        <v>1002</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>57</v>
@@ -8612,10 +8657,10 @@
         <v>1</v>
       </c>
       <c r="I101" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K101" s="1">
         <v>9999</v>
@@ -8651,13 +8696,13 @@
     </row>
     <row r="102" customHeight="1" spans="3:20">
       <c r="C102" s="1">
-        <v>1018</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>177</v>
+        <v>1003</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>57</v>
@@ -8669,10 +8714,10 @@
         <v>1</v>
       </c>
       <c r="I102" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K102" s="1">
         <v>9999</v>
@@ -8708,13 +8753,13 @@
     </row>
     <row r="103" customHeight="1" spans="3:20">
       <c r="C103" s="1">
-        <v>1019</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>179</v>
+        <v>1004</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>57</v>
@@ -8726,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="6">
         <v>4</v>
@@ -8765,13 +8810,13 @@
     </row>
     <row r="104" customHeight="1" spans="3:20">
       <c r="C104" s="1">
-        <v>1020</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>181</v>
+        <v>1005</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>57</v>
@@ -8783,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" s="6">
         <v>4</v>
@@ -8798,7 +8843,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N104" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N104:N135" si="4">(M104-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O104" s="8">
@@ -8822,13 +8867,13 @@
     </row>
     <row r="105" customHeight="1" spans="3:20">
       <c r="C105" s="1">
-        <v>1021</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>183</v>
+        <v>1006</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>57</v>
@@ -8840,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" s="6">
         <v>4</v>
@@ -8855,7 +8900,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N105" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O105" s="8">
@@ -8879,13 +8924,13 @@
     </row>
     <row r="106" customHeight="1" spans="3:20">
       <c r="C106" s="1">
-        <v>1022</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>185</v>
+        <v>1007</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>57</v>
@@ -8897,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" s="6">
         <v>4</v>
@@ -8912,7 +8957,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N106" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O106" s="8">
@@ -8936,13 +8981,13 @@
     </row>
     <row r="107" customHeight="1" spans="3:20">
       <c r="C107" s="1">
-        <v>1023</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>187</v>
+        <v>1008</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>57</v>
@@ -8954,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" s="6">
         <v>4</v>
@@ -8969,7 +9014,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N107" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O107" s="8">
@@ -8993,13 +9038,13 @@
     </row>
     <row r="108" customHeight="1" spans="3:20">
       <c r="C108" s="1">
-        <v>1024</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>189</v>
+        <v>1009</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>57</v>
@@ -9011,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" s="6">
         <v>4</v>
@@ -9026,7 +9071,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N108" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O108" s="8">
@@ -9050,13 +9095,13 @@
     </row>
     <row r="109" customHeight="1" spans="3:20">
       <c r="C109" s="1">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>57</v>
@@ -9068,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" s="6">
         <v>4</v>
@@ -9083,7 +9128,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N109" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O109" s="8">
@@ -9107,13 +9152,13 @@
     </row>
     <row r="110" customHeight="1" spans="3:20">
       <c r="C110" s="1">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>57</v>
@@ -9125,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" s="6">
         <v>4</v>
@@ -9140,7 +9185,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N110" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O110" s="8">
@@ -9164,13 +9209,13 @@
     </row>
     <row r="111" customHeight="1" spans="3:20">
       <c r="C111" s="1">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>57</v>
@@ -9182,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="6">
         <v>4</v>
@@ -9197,7 +9242,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N111" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O111" s="8">
@@ -9221,13 +9266,13 @@
     </row>
     <row r="112" customHeight="1" spans="3:20">
       <c r="C112" s="1">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>57</v>
@@ -9239,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="I112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" s="6">
         <v>4</v>
@@ -9254,7 +9299,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N112" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O112" s="8">
@@ -9278,13 +9323,13 @@
     </row>
     <row r="113" customHeight="1" spans="3:20">
       <c r="C113" s="1">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>57</v>
@@ -9296,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" s="6">
         <v>4</v>
@@ -9311,7 +9356,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N113" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O113" s="8">
@@ -9335,13 +9380,13 @@
     </row>
     <row r="114" customHeight="1" spans="3:20">
       <c r="C114" s="1">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>57</v>
@@ -9353,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" s="6">
         <v>4</v>
@@ -9368,7 +9413,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N114" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O114" s="8">
@@ -9392,13 +9437,13 @@
     </row>
     <row r="115" customHeight="1" spans="3:20">
       <c r="C115" s="1">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>57</v>
@@ -9410,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J115" s="6">
         <v>4</v>
@@ -9425,7 +9470,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N115" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O115" s="8">
@@ -9449,13 +9494,13 @@
     </row>
     <row r="116" customHeight="1" spans="3:20">
       <c r="C116" s="1">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>57</v>
@@ -9467,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116" s="6">
         <v>4</v>
@@ -9482,7 +9527,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N116" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O116" s="8">
@@ -9506,13 +9551,13 @@
     </row>
     <row r="117" customHeight="1" spans="3:20">
       <c r="C117" s="1">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>57</v>
@@ -9524,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" s="6">
         <v>4</v>
@@ -9539,7 +9584,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N117" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O117" s="8">
@@ -9563,13 +9608,13 @@
     </row>
     <row r="118" customHeight="1" spans="3:20">
       <c r="C118" s="1">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>57</v>
@@ -9581,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" s="6">
         <v>4</v>
@@ -9596,7 +9641,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N118" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O118" s="8">
@@ -9620,13 +9665,13 @@
     </row>
     <row r="119" customHeight="1" spans="3:20">
       <c r="C119" s="1">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>57</v>
@@ -9638,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" s="6">
         <v>4</v>
@@ -9653,7 +9698,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N119" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O119" s="8">
@@ -9677,13 +9722,13 @@
     </row>
     <row r="120" customHeight="1" spans="3:20">
       <c r="C120" s="1">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>57</v>
@@ -9695,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" s="6">
         <v>4</v>
@@ -9710,7 +9755,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N120" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O120" s="8">
@@ -9734,13 +9779,13 @@
     </row>
     <row r="121" customHeight="1" spans="3:20">
       <c r="C121" s="1">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>57</v>
@@ -9752,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" s="6">
         <v>4</v>
@@ -9767,7 +9812,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N121" s="8">
-        <f t="shared" ref="N121:N152" si="4">(M121-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="4"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O121" s="8">
@@ -9791,13 +9836,13 @@
     </row>
     <row r="122" customHeight="1" spans="3:20">
       <c r="C122" s="1">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>57</v>
@@ -9809,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="I122" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" s="6">
         <v>4</v>
@@ -9848,13 +9893,13 @@
     </row>
     <row r="123" customHeight="1" spans="3:20">
       <c r="C123" s="1">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>57</v>
@@ -9866,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" s="6">
         <v>4</v>
@@ -9905,13 +9950,13 @@
     </row>
     <row r="124" customHeight="1" spans="3:20">
       <c r="C124" s="1">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>57</v>
@@ -9923,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="I124" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124" s="6">
         <v>4</v>
@@ -9962,13 +10007,13 @@
     </row>
     <row r="125" customHeight="1" spans="3:20">
       <c r="C125" s="1">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>57</v>
@@ -9980,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="I125" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J125" s="6">
         <v>4</v>
@@ -10019,13 +10064,13 @@
     </row>
     <row r="126" customHeight="1" spans="3:20">
       <c r="C126" s="1">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>57</v>
@@ -10037,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J126" s="6">
         <v>4</v>
@@ -10076,13 +10121,13 @@
     </row>
     <row r="127" customHeight="1" spans="3:20">
       <c r="C127" s="1">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>57</v>
@@ -10094,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J127" s="6">
         <v>4</v>
@@ -10133,13 +10178,13 @@
     </row>
     <row r="128" customHeight="1" spans="3:20">
       <c r="C128" s="1">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>57</v>
@@ -10151,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J128" s="6">
         <v>4</v>
@@ -10190,13 +10235,13 @@
     </row>
     <row r="129" customHeight="1" spans="3:20">
       <c r="C129" s="1">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>57</v>
@@ -10208,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="I129" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" s="6">
         <v>4</v>
@@ -10247,13 +10292,13 @@
     </row>
     <row r="130" customHeight="1" spans="3:20">
       <c r="C130" s="1">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>57</v>
@@ -10265,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="I130" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J130" s="6">
         <v>4</v>
@@ -10304,13 +10349,13 @@
     </row>
     <row r="131" customHeight="1" spans="3:20">
       <c r="C131" s="1">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>57</v>
@@ -10322,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J131" s="6">
         <v>4</v>
@@ -10361,13 +10406,13 @@
     </row>
     <row r="132" customHeight="1" spans="3:20">
       <c r="C132" s="1">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>57</v>
@@ -10379,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J132" s="6">
         <v>4</v>
@@ -10418,13 +10463,13 @@
     </row>
     <row r="133" customHeight="1" spans="3:20">
       <c r="C133" s="1">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>57</v>
@@ -10436,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133" s="6">
         <v>4</v>
@@ -10475,13 +10520,13 @@
     </row>
     <row r="134" customHeight="1" spans="3:20">
       <c r="C134" s="1">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>57</v>
@@ -10493,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J134" s="6">
         <v>4</v>
@@ -10532,13 +10577,13 @@
     </row>
     <row r="135" customHeight="1" spans="3:20">
       <c r="C135" s="1">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>57</v>
@@ -10550,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J135" s="6">
         <v>4</v>
@@ -10589,13 +10634,13 @@
     </row>
     <row r="136" customHeight="1" spans="3:20">
       <c r="C136" s="1">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>57</v>
@@ -10607,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="I136" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J136" s="6">
         <v>4</v>
@@ -10622,7 +10667,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N136" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N136:N167" si="5">(M136-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O136" s="8">
@@ -10646,13 +10691,13 @@
     </row>
     <row r="137" customHeight="1" spans="3:20">
       <c r="C137" s="1">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>57</v>
@@ -10664,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="I137" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J137" s="6">
         <v>4</v>
@@ -10679,7 +10724,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N137" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O137" s="8">
@@ -10703,13 +10748,13 @@
     </row>
     <row r="138" customHeight="1" spans="3:20">
       <c r="C138" s="1">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>57</v>
@@ -10721,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J138" s="6">
         <v>4</v>
@@ -10736,7 +10781,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N138" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O138" s="8">
@@ -10760,13 +10805,13 @@
     </row>
     <row r="139" customHeight="1" spans="3:20">
       <c r="C139" s="1">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>57</v>
@@ -10778,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J139" s="6">
         <v>4</v>
@@ -10793,7 +10838,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N139" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O139" s="8">
@@ -10817,13 +10862,13 @@
     </row>
     <row r="140" customHeight="1" spans="3:20">
       <c r="C140" s="1">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>57</v>
@@ -10835,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J140" s="6">
         <v>4</v>
@@ -10850,7 +10895,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N140" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O140" s="8">
@@ -10874,13 +10919,13 @@
     </row>
     <row r="141" customHeight="1" spans="3:20">
       <c r="C141" s="1">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>57</v>
@@ -10892,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J141" s="6">
         <v>4</v>
@@ -10907,7 +10952,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N141" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O141" s="8">
@@ -10931,13 +10976,13 @@
     </row>
     <row r="142" customHeight="1" spans="3:20">
       <c r="C142" s="1">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>57</v>
@@ -10949,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J142" s="6">
         <v>4</v>
@@ -10964,7 +11009,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N142" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O142" s="8">
@@ -10988,13 +11033,13 @@
     </row>
     <row r="143" customHeight="1" spans="3:20">
       <c r="C143" s="1">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>57</v>
@@ -11006,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J143" s="6">
         <v>4</v>
@@ -11021,7 +11066,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N143" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O143" s="8">
@@ -11045,13 +11090,13 @@
     </row>
     <row r="144" customHeight="1" spans="3:20">
       <c r="C144" s="1">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>57</v>
@@ -11063,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J144" s="6">
         <v>4</v>
@@ -11078,7 +11123,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N144" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O144" s="8">
@@ -11102,13 +11147,13 @@
     </row>
     <row r="145" customHeight="1" spans="3:20">
       <c r="C145" s="1">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>57</v>
@@ -11120,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J145" s="6">
         <v>4</v>
@@ -11135,7 +11180,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N145" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O145" s="8">
@@ -11159,13 +11204,13 @@
     </row>
     <row r="146" customHeight="1" spans="3:20">
       <c r="C146" s="1">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>57</v>
@@ -11177,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="I146" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J146" s="6">
         <v>4</v>
@@ -11192,7 +11237,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N146" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O146" s="8">
@@ -11216,13 +11261,13 @@
     </row>
     <row r="147" customHeight="1" spans="3:20">
       <c r="C147" s="1">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>57</v>
@@ -11234,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J147" s="6">
         <v>4</v>
@@ -11249,7 +11294,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N147" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O147" s="8">
@@ -11273,13 +11318,13 @@
     </row>
     <row r="148" customHeight="1" spans="3:20">
       <c r="C148" s="1">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>57</v>
@@ -11291,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="I148" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J148" s="6">
         <v>4</v>
@@ -11306,7 +11351,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N148" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O148" s="8">
@@ -11330,13 +11375,13 @@
     </row>
     <row r="149" customHeight="1" spans="3:20">
       <c r="C149" s="1">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>57</v>
@@ -11348,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J149" s="6">
         <v>4</v>
@@ -11363,7 +11408,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N149" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O149" s="8">
@@ -11387,13 +11432,13 @@
     </row>
     <row r="150" customHeight="1" spans="3:20">
       <c r="C150" s="1">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>57</v>
@@ -11405,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J150" s="6">
         <v>4</v>
@@ -11420,7 +11465,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N150" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O150" s="8">
@@ -11444,13 +11489,13 @@
     </row>
     <row r="151" customHeight="1" spans="3:20">
       <c r="C151" s="1">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>57</v>
@@ -11462,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J151" s="6">
         <v>4</v>
@@ -11477,7 +11522,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N151" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O151" s="8">
@@ -11501,13 +11546,13 @@
     </row>
     <row r="152" customHeight="1" spans="3:20">
       <c r="C152" s="1">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>57</v>
@@ -11519,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J152" s="6">
         <v>4</v>
@@ -11534,7 +11579,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N152" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O152" s="8">
@@ -11558,13 +11603,13 @@
     </row>
     <row r="153" customHeight="1" spans="3:20">
       <c r="C153" s="1">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>57</v>
@@ -11576,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I153" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J153" s="6">
         <v>4</v>
@@ -11591,7 +11636,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N153" s="8">
-        <f t="shared" ref="N153:N178" si="5">(M153-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="5"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O153" s="8">
@@ -11615,13 +11660,13 @@
     </row>
     <row r="154" customHeight="1" spans="3:20">
       <c r="C154" s="1">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>57</v>
@@ -11633,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="I154" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J154" s="6">
         <v>4</v>
@@ -11672,13 +11717,13 @@
     </row>
     <row r="155" customHeight="1" spans="3:20">
       <c r="C155" s="1">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>57</v>
@@ -11690,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J155" s="6">
         <v>4</v>
@@ -11729,13 +11774,13 @@
     </row>
     <row r="156" customHeight="1" spans="3:20">
       <c r="C156" s="1">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>57</v>
@@ -11747,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J156" s="6">
         <v>4</v>
@@ -11786,13 +11831,13 @@
     </row>
     <row r="157" customHeight="1" spans="3:20">
       <c r="C157" s="1">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>57</v>
@@ -11804,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="I157" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J157" s="6">
         <v>4</v>
@@ -11843,13 +11888,13 @@
     </row>
     <row r="158" customHeight="1" spans="3:20">
       <c r="C158" s="1">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>57</v>
@@ -11861,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="I158" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J158" s="6">
         <v>4</v>
@@ -11900,13 +11945,13 @@
     </row>
     <row r="159" customHeight="1" spans="3:20">
       <c r="C159" s="1">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>57</v>
@@ -11957,13 +12002,13 @@
     </row>
     <row r="160" customHeight="1" spans="3:20">
       <c r="C160" s="1">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>57</v>
@@ -12014,13 +12059,13 @@
     </row>
     <row r="161" customHeight="1" spans="3:20">
       <c r="C161" s="1">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>57</v>
@@ -12071,13 +12116,13 @@
     </row>
     <row r="162" customHeight="1" spans="3:20">
       <c r="C162" s="1">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>57</v>
@@ -12128,13 +12173,13 @@
     </row>
     <row r="163" customHeight="1" spans="3:20">
       <c r="C163" s="1">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>57</v>
@@ -12185,13 +12230,13 @@
     </row>
     <row r="164" customHeight="1" spans="3:20">
       <c r="C164" s="1">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>57</v>
@@ -12242,13 +12287,13 @@
     </row>
     <row r="165" customHeight="1" spans="3:20">
       <c r="C165" s="1">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>57</v>
@@ -12299,13 +12344,13 @@
     </row>
     <row r="166" customHeight="1" spans="3:20">
       <c r="C166" s="1">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>57</v>
@@ -12356,13 +12401,13 @@
     </row>
     <row r="167" customHeight="1" spans="3:20">
       <c r="C167" s="1">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>57</v>
@@ -12413,13 +12458,13 @@
     </row>
     <row r="168" customHeight="1" spans="3:20">
       <c r="C168" s="1">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>57</v>
@@ -12446,7 +12491,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N168" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N168:N193" si="6">(M168-70*365-19)*86400-8*3600</f>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O168" s="8">
@@ -12470,13 +12515,13 @@
     </row>
     <row r="169" customHeight="1" spans="3:20">
       <c r="C169" s="1">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>57</v>
@@ -12503,7 +12548,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N169" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O169" s="8">
@@ -12527,13 +12572,13 @@
     </row>
     <row r="170" customHeight="1" spans="3:20">
       <c r="C170" s="1">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>57</v>
@@ -12560,7 +12605,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N170" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O170" s="8">
@@ -12584,13 +12629,13 @@
     </row>
     <row r="171" customHeight="1" spans="3:20">
       <c r="C171" s="1">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>57</v>
@@ -12617,7 +12662,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N171" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O171" s="8">
@@ -12641,13 +12686,13 @@
     </row>
     <row r="172" customHeight="1" spans="3:20">
       <c r="C172" s="1">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>57</v>
@@ -12674,7 +12719,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N172" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O172" s="8">
@@ -12698,13 +12743,13 @@
     </row>
     <row r="173" customHeight="1" spans="3:20">
       <c r="C173" s="1">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>57</v>
@@ -12731,7 +12776,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N173" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O173" s="8">
@@ -12755,13 +12800,13 @@
     </row>
     <row r="174" customHeight="1" spans="3:20">
       <c r="C174" s="1">
-        <v>2000</v>
+        <v>1075</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>57</v>
@@ -12770,13 +12815,13 @@
         <v>60</v>
       </c>
       <c r="H174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" s="6">
         <v>0</v>
       </c>
       <c r="J174" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K174" s="1">
         <v>9999</v>
@@ -12788,7 +12833,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N174" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O174" s="8">
@@ -12812,13 +12857,13 @@
     </row>
     <row r="175" customHeight="1" spans="3:20">
       <c r="C175" s="1">
-        <v>2001</v>
+        <v>1076</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>57</v>
@@ -12827,13 +12872,13 @@
         <v>60</v>
       </c>
       <c r="H175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" s="6">
         <v>0</v>
       </c>
       <c r="J175" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K175" s="1">
         <v>9999</v>
@@ -12845,7 +12890,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N175" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O175" s="8">
@@ -12869,13 +12914,13 @@
     </row>
     <row r="176" customHeight="1" spans="3:20">
       <c r="C176" s="1">
-        <v>2002</v>
+        <v>1077</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>57</v>
@@ -12884,13 +12929,13 @@
         <v>60</v>
       </c>
       <c r="H176" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" s="6">
         <v>0</v>
       </c>
       <c r="J176" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K176" s="1">
         <v>9999</v>
@@ -12902,7 +12947,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N176" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O176" s="8">
@@ -12926,13 +12971,13 @@
     </row>
     <row r="177" customHeight="1" spans="3:20">
       <c r="C177" s="1">
-        <v>2003</v>
+        <v>1078</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>57</v>
@@ -12941,13 +12986,13 @@
         <v>60</v>
       </c>
       <c r="H177" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="6">
         <v>0</v>
       </c>
       <c r="J177" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K177" s="1">
         <v>9999</v>
@@ -12959,7 +13004,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N177" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O177" s="8">
@@ -12983,13 +13028,13 @@
     </row>
     <row r="178" customHeight="1" spans="3:20">
       <c r="C178" s="1">
-        <v>2004</v>
+        <v>1079</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>57</v>
@@ -12998,7 +13043,7 @@
         <v>60</v>
       </c>
       <c r="H178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" s="6">
         <v>0</v>
@@ -13016,7 +13061,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N178" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O178" s="8">
@@ -13035,6 +13080,861 @@
         <v>-1</v>
       </c>
       <c r="T178" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="3:20">
+      <c r="C179" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H179" s="1">
+        <v>1</v>
+      </c>
+      <c r="I179" s="6">
+        <v>0</v>
+      </c>
+      <c r="J179" s="6">
+        <v>4</v>
+      </c>
+      <c r="K179" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L179" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M179" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N179" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O179" s="8">
+        <v>1</v>
+      </c>
+      <c r="P179" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R179" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S179" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T179" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="3:20">
+      <c r="C180" s="1">
+        <v>1081</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H180" s="1">
+        <v>1</v>
+      </c>
+      <c r="I180" s="6">
+        <v>0</v>
+      </c>
+      <c r="J180" s="6">
+        <v>4</v>
+      </c>
+      <c r="K180" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L180" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M180" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N180" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O180" s="8">
+        <v>1</v>
+      </c>
+      <c r="P180" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R180" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S180" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T180" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="3:20">
+      <c r="C181" s="1">
+        <v>1082</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H181" s="1">
+        <v>1</v>
+      </c>
+      <c r="I181" s="6">
+        <v>0</v>
+      </c>
+      <c r="J181" s="6">
+        <v>4</v>
+      </c>
+      <c r="K181" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L181" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M181" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N181" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O181" s="8">
+        <v>1</v>
+      </c>
+      <c r="P181" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R181" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S181" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T181" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="3:20">
+      <c r="C182" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H182" s="1">
+        <v>1</v>
+      </c>
+      <c r="I182" s="6">
+        <v>0</v>
+      </c>
+      <c r="J182" s="6">
+        <v>4</v>
+      </c>
+      <c r="K182" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L182" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M182" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N182" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O182" s="8">
+        <v>1</v>
+      </c>
+      <c r="P182" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R182" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S182" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T182" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="3:20">
+      <c r="C183" s="1">
+        <v>1084</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H183" s="1">
+        <v>1</v>
+      </c>
+      <c r="I183" s="6">
+        <v>0</v>
+      </c>
+      <c r="J183" s="6">
+        <v>4</v>
+      </c>
+      <c r="K183" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L183" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M183" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N183" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O183" s="8">
+        <v>1</v>
+      </c>
+      <c r="P183" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R183" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S183" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T183" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="3:20">
+      <c r="C184" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H184" s="1">
+        <v>1</v>
+      </c>
+      <c r="I184" s="6">
+        <v>0</v>
+      </c>
+      <c r="J184" s="6">
+        <v>4</v>
+      </c>
+      <c r="K184" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L184" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M184" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N184" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O184" s="8">
+        <v>1</v>
+      </c>
+      <c r="P184" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R184" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S184" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T184" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="3:20">
+      <c r="C185" s="1">
+        <v>1086</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H185" s="1">
+        <v>1</v>
+      </c>
+      <c r="I185" s="6">
+        <v>0</v>
+      </c>
+      <c r="J185" s="6">
+        <v>4</v>
+      </c>
+      <c r="K185" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M185" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N185" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O185" s="8">
+        <v>1</v>
+      </c>
+      <c r="P185" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R185" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T185" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="3:20">
+      <c r="C186" s="1">
+        <v>1087</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H186" s="1">
+        <v>1</v>
+      </c>
+      <c r="I186" s="6">
+        <v>0</v>
+      </c>
+      <c r="J186" s="6">
+        <v>4</v>
+      </c>
+      <c r="K186" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L186" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M186" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N186" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O186" s="8">
+        <v>1</v>
+      </c>
+      <c r="P186" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R186" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S186" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T186" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="3:20">
+      <c r="C187" s="1">
+        <v>1088</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H187" s="1">
+        <v>1</v>
+      </c>
+      <c r="I187" s="6">
+        <v>0</v>
+      </c>
+      <c r="J187" s="6">
+        <v>4</v>
+      </c>
+      <c r="K187" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L187" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M187" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N187" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O187" s="8">
+        <v>1</v>
+      </c>
+      <c r="P187" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R187" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S187" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T187" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="3:20">
+      <c r="C188" s="1">
+        <v>1089</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H188" s="1">
+        <v>1</v>
+      </c>
+      <c r="I188" s="6">
+        <v>0</v>
+      </c>
+      <c r="J188" s="6">
+        <v>4</v>
+      </c>
+      <c r="K188" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L188" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M188" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N188" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O188" s="8">
+        <v>1</v>
+      </c>
+      <c r="P188" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R188" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S188" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T188" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="3:20">
+      <c r="C189" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H189" s="1">
+        <v>2</v>
+      </c>
+      <c r="I189" s="6">
+        <v>0</v>
+      </c>
+      <c r="J189" s="6">
+        <v>0</v>
+      </c>
+      <c r="K189" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L189" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M189" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N189" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O189" s="8">
+        <v>1</v>
+      </c>
+      <c r="P189" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R189" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S189" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T189" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="3:20">
+      <c r="C190" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2</v>
+      </c>
+      <c r="I190" s="6">
+        <v>0</v>
+      </c>
+      <c r="J190" s="6">
+        <v>1</v>
+      </c>
+      <c r="K190" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L190" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M190" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N190" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O190" s="8">
+        <v>1</v>
+      </c>
+      <c r="P190" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R190" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S190" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T190" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="3:20">
+      <c r="C191" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H191" s="1">
+        <v>2</v>
+      </c>
+      <c r="I191" s="6">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6">
+        <v>2</v>
+      </c>
+      <c r="K191" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L191" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M191" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N191" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O191" s="8">
+        <v>1</v>
+      </c>
+      <c r="P191" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R191" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S191" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T191" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="3:20">
+      <c r="C192" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H192" s="1">
+        <v>2</v>
+      </c>
+      <c r="I192" s="6">
+        <v>0</v>
+      </c>
+      <c r="J192" s="6">
+        <v>3</v>
+      </c>
+      <c r="K192" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L192" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M192" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N192" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O192" s="8">
+        <v>1</v>
+      </c>
+      <c r="P192" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R192" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S192" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T192" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="3:20">
+      <c r="C193" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H193" s="1">
+        <v>2</v>
+      </c>
+      <c r="I193" s="6">
+        <v>0</v>
+      </c>
+      <c r="J193" s="6">
+        <v>4</v>
+      </c>
+      <c r="K193" s="1">
+        <v>9999</v>
+      </c>
+      <c r="L193" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M193" s="7">
+        <v>25569.3333333333</v>
+      </c>
+      <c r="N193" s="8">
+        <f t="shared" si="6"/>
+        <v>-2.93366611003876e-6</v>
+      </c>
+      <c r="O193" s="8">
+        <v>1</v>
+      </c>
+      <c r="P193" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R193" s="8">
+        <v>-1</v>
+      </c>
+      <c r="S193" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T193" s="6">
         <v>-1</v>
       </c>
     </row>

--- a/config/excel/Item.xlsx
+++ b/config/excel/Item.xlsx
@@ -82,6 +82,7 @@
 0: 普通物品
 1: 装备经验
 2: 晶石经验
+3: 英雄卡牌经验
 装备子类型：
 0: 单手剑
 1: 双手剑
@@ -1418,9 +1419,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1450,6 +1451,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1463,28 +1501,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
@@ -1492,77 +1508,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,7 +1526,46 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,11 +1579,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1644,7 +1645,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,13 +1771,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,139 +1819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,6 +1868,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1877,6 +1908,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1900,214 +1964,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3338,8 +3339,8 @@
   <sheetPr/>
   <dimension ref="A1:X512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A52" sqref="$A52:$XFD56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -3673,7 +3674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:24">
+    <row r="7" ht="13.5" spans="1:24">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7">
@@ -3695,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -3732,7 +3733,7 @@
         <v>-1</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
@@ -3742,10 +3743,10 @@
       </c>
       <c r="X7" s="7" t="str">
         <f>U7&amp;","&amp;V7&amp;","&amp;W7</f>
-        <v>0,0,0</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:24">
+        <v>100,0,0</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="1:24">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7">
@@ -3767,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -3804,7 +3805,7 @@
         <v>-1</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
@@ -3814,7 +3815,7 @@
       </c>
       <c r="X8" s="7" t="str">
         <f t="shared" ref="X8:X71" si="1">U8&amp;","&amp;V8&amp;","&amp;W8</f>
-        <v>0,0,0</v>
+        <v>500,0,0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:24">
@@ -3837,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="7">
         <v>2</v>
@@ -3874,7 +3875,7 @@
         <v>-1</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
@@ -3884,7 +3885,7 @@
       </c>
       <c r="X9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0,0,0</v>
+        <v>2000,0,0</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:24">
@@ -3907,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="7">
         <v>3</v>
@@ -3944,7 +3945,7 @@
         <v>-1</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -3954,7 +3955,7 @@
       </c>
       <c r="X10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0,0,0</v>
+        <v>10000,0,0</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:24">
@@ -3977,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="7">
         <v>4</v>
@@ -4014,7 +4015,7 @@
         <v>-1</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
@@ -4024,7 +4025,7 @@
       </c>
       <c r="X11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0,0,0</v>
+        <v>50000,0,0</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:24">

--- a/config/excel/Item.xlsx
+++ b/config/excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24120" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -1244,8 +1244,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1274,9 +1274,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,15 +1304,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,7 +1327,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,33 +1395,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -1372,54 +1418,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,25 +1469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,7 +1481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,6 +1511,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1529,31 +1577,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,73 +1613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,6 +1632,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,17 +1691,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1711,45 +1705,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1771,6 +1726,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1780,159 +1759,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3163,8 +3163,8 @@
   <sheetPr/>
   <dimension ref="A1:X483"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B118" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100:K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L100" s="7">
         <v>-1</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L101" s="7">
         <v>-1</v>
@@ -10178,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="K102" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L102" s="7">
         <v>-1</v>
@@ -10248,7 +10248,7 @@
         <v>3</v>
       </c>
       <c r="K103" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L103" s="7">
         <v>-1</v>
@@ -10318,7 +10318,7 @@
         <v>4</v>
       </c>
       <c r="K104" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L104" s="7">
         <v>-1</v>
@@ -10388,7 +10388,7 @@
         <v>4</v>
       </c>
       <c r="K105" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L105" s="7">
         <v>-1</v>
@@ -10458,7 +10458,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L106" s="7">
         <v>-1</v>
@@ -10528,7 +10528,7 @@
         <v>4</v>
       </c>
       <c r="K107" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L107" s="7">
         <v>-1</v>
@@ -10598,7 +10598,7 @@
         <v>4</v>
       </c>
       <c r="K108" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L108" s="7">
         <v>-1</v>
@@ -10668,7 +10668,7 @@
         <v>4</v>
       </c>
       <c r="K109" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L109" s="7">
         <v>-1</v>
@@ -10738,7 +10738,7 @@
         <v>4</v>
       </c>
       <c r="K110" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L110" s="7">
         <v>-1</v>
@@ -10808,7 +10808,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L111" s="7">
         <v>-1</v>
@@ -10878,7 +10878,7 @@
         <v>4</v>
       </c>
       <c r="K112" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L112" s="7">
         <v>-1</v>
@@ -10948,7 +10948,7 @@
         <v>4</v>
       </c>
       <c r="K113" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L113" s="7">
         <v>-1</v>
@@ -11018,7 +11018,7 @@
         <v>4</v>
       </c>
       <c r="K114" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L114" s="7">
         <v>-1</v>
@@ -11088,7 +11088,7 @@
         <v>4</v>
       </c>
       <c r="K115" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L115" s="7">
         <v>-1</v>
@@ -11158,7 +11158,7 @@
         <v>4</v>
       </c>
       <c r="K116" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L116" s="7">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>4</v>
       </c>
       <c r="K117" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L117" s="7">
         <v>-1</v>
@@ -11298,7 +11298,7 @@
         <v>4</v>
       </c>
       <c r="K118" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L118" s="7">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="K119" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L119" s="7">
         <v>-1</v>
@@ -11438,7 +11438,7 @@
         <v>4</v>
       </c>
       <c r="K120" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L120" s="7">
         <v>-1</v>
@@ -11508,7 +11508,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L121" s="7">
         <v>-1</v>
@@ -11578,7 +11578,7 @@
         <v>4</v>
       </c>
       <c r="K122" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L122" s="7">
         <v>-1</v>
@@ -11648,7 +11648,7 @@
         <v>4</v>
       </c>
       <c r="K123" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L123" s="7">
         <v>-1</v>
@@ -11718,7 +11718,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L124" s="7">
         <v>-1</v>
@@ -11788,7 +11788,7 @@
         <v>4</v>
       </c>
       <c r="K125" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L125" s="7">
         <v>-1</v>
@@ -11858,7 +11858,7 @@
         <v>4</v>
       </c>
       <c r="K126" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L126" s="7">
         <v>-1</v>
@@ -11928,7 +11928,7 @@
         <v>4</v>
       </c>
       <c r="K127" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L127" s="7">
         <v>-1</v>
@@ -11998,7 +11998,7 @@
         <v>4</v>
       </c>
       <c r="K128" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L128" s="7">
         <v>-1</v>
@@ -12068,7 +12068,7 @@
         <v>4</v>
       </c>
       <c r="K129" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L129" s="7">
         <v>-1</v>
@@ -12138,7 +12138,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L130" s="7">
         <v>-1</v>
@@ -12208,7 +12208,7 @@
         <v>4</v>
       </c>
       <c r="K131" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L131" s="7">
         <v>-1</v>
@@ -12278,7 +12278,7 @@
         <v>4</v>
       </c>
       <c r="K132" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L132" s="7">
         <v>-1</v>
@@ -12348,7 +12348,7 @@
         <v>4</v>
       </c>
       <c r="K133" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L133" s="7">
         <v>-1</v>
@@ -12418,7 +12418,7 @@
         <v>4</v>
       </c>
       <c r="K134" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L134" s="7">
         <v>-1</v>
@@ -12488,7 +12488,7 @@
         <v>4</v>
       </c>
       <c r="K135" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L135" s="7">
         <v>-1</v>
@@ -12558,7 +12558,7 @@
         <v>4</v>
       </c>
       <c r="K136" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L136" s="7">
         <v>-1</v>
@@ -12628,7 +12628,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L137" s="7">
         <v>-1</v>
@@ -12698,7 +12698,7 @@
         <v>4</v>
       </c>
       <c r="K138" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L138" s="7">
         <v>-1</v>
@@ -12768,7 +12768,7 @@
         <v>4</v>
       </c>
       <c r="K139" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L139" s="7">
         <v>-1</v>
@@ -12838,7 +12838,7 @@
         <v>4</v>
       </c>
       <c r="K140" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L140" s="7">
         <v>-1</v>
@@ -12908,7 +12908,7 @@
         <v>4</v>
       </c>
       <c r="K141" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L141" s="7">
         <v>-1</v>
@@ -12978,7 +12978,7 @@
         <v>4</v>
       </c>
       <c r="K142" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L142" s="7">
         <v>-1</v>
@@ -13048,7 +13048,7 @@
         <v>4</v>
       </c>
       <c r="K143" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L143" s="7">
         <v>-1</v>
@@ -13118,7 +13118,7 @@
         <v>4</v>
       </c>
       <c r="K144" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L144" s="7">
         <v>-1</v>
@@ -13188,7 +13188,7 @@
         <v>4</v>
       </c>
       <c r="K145" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L145" s="7">
         <v>-1</v>
@@ -13258,7 +13258,7 @@
         <v>4</v>
       </c>
       <c r="K146" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L146" s="7">
         <v>-1</v>
@@ -13328,7 +13328,7 @@
         <v>4</v>
       </c>
       <c r="K147" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L147" s="7">
         <v>-1</v>
@@ -13398,7 +13398,7 @@
         <v>4</v>
       </c>
       <c r="K148" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L148" s="7">
         <v>-1</v>
@@ -13468,7 +13468,7 @@
         <v>4</v>
       </c>
       <c r="K149" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L149" s="7">
         <v>-1</v>
@@ -13538,7 +13538,7 @@
         <v>4</v>
       </c>
       <c r="K150" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L150" s="7">
         <v>-1</v>
@@ -13608,7 +13608,7 @@
         <v>4</v>
       </c>
       <c r="K151" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L151" s="7">
         <v>-1</v>
@@ -13678,7 +13678,7 @@
         <v>4</v>
       </c>
       <c r="K152" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L152" s="7">
         <v>-1</v>
@@ -13748,7 +13748,7 @@
         <v>4</v>
       </c>
       <c r="K153" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L153" s="7">
         <v>-1</v>
@@ -13818,7 +13818,7 @@
         <v>4</v>
       </c>
       <c r="K154" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L154" s="7">
         <v>-1</v>
@@ -13888,7 +13888,7 @@
         <v>4</v>
       </c>
       <c r="K155" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L155" s="7">
         <v>-1</v>
@@ -13958,7 +13958,7 @@
         <v>4</v>
       </c>
       <c r="K156" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L156" s="7">
         <v>-1</v>
@@ -14028,7 +14028,7 @@
         <v>4</v>
       </c>
       <c r="K157" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L157" s="7">
         <v>-1</v>
@@ -14098,7 +14098,7 @@
         <v>4</v>
       </c>
       <c r="K158" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L158" s="7">
         <v>-1</v>
@@ -14168,7 +14168,7 @@
         <v>4</v>
       </c>
       <c r="K159" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L159" s="7">
         <v>-1</v>
@@ -14247,7 +14247,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N160" s="11">
-        <f>(M160-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="8"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O160" s="11">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="X160" s="7" t="str">
-        <f>U160&amp;","&amp;V160&amp;","&amp;W160</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14317,7 +14317,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N161" s="11">
-        <f>(M161-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="8"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O161" s="11">
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="X161" s="7" t="str">
-        <f>U161&amp;","&amp;V161&amp;","&amp;W161</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14387,7 +14387,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N162" s="11">
-        <f>(M162-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="8"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O162" s="11">
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="X162" s="7" t="str">
-        <f>U162&amp;","&amp;V162&amp;","&amp;W162</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14457,7 +14457,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N163" s="11">
-        <f>(M163-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="8"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O163" s="11">
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="X163" s="7" t="str">
-        <f>U163&amp;","&amp;V163&amp;","&amp;W163</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
         <v>25569.3333333333</v>
       </c>
       <c r="N164" s="11">
-        <f>(M164-70*365-19)*86400-8*3600</f>
+        <f t="shared" si="8"/>
         <v>-2.93366611003876e-6</v>
       </c>
       <c r="O164" s="11">
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="X164" s="7" t="str">
-        <f>U164&amp;","&amp;V164&amp;","&amp;W164</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="X165" s="7" t="str">
-        <f>U165&amp;","&amp;V165&amp;","&amp;W165</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="X166" s="7" t="str">
-        <f>U166&amp;","&amp;V166&amp;","&amp;W166</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="X167" s="7" t="str">
-        <f>U167&amp;","&amp;V167&amp;","&amp;W167</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14838,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="X168" s="7" t="str">
-        <f>U168&amp;","&amp;V168&amp;","&amp;W168</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="X169" s="7" t="str">
-        <f>U169&amp;","&amp;V169&amp;","&amp;W169</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="X170" s="7" t="str">
-        <f>U170&amp;","&amp;V170&amp;","&amp;W170</f>
+        <f t="shared" si="9"/>
         <v>0,0,0</v>
       </c>
     </row>
